--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nordrefollo.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nordrefollo.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19464.057500000003</v>
+        <v>18807.637499999997</v>
       </c>
       <c r="C2">
-        <v>14963.9035</v>
+        <v>14503.471499999996</v>
       </c>
       <c r="D2">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="E2">
-        <v>19644.134350000004</v>
+        <v>19256.70935</v>
       </c>
       <c r="F2">
-        <v>300.5</v>
+        <v>270</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>14963.9035</v>
+        <v>14503.471499999996</v>
       </c>
       <c r="I2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>3202592</v>
+        <v>3197829</v>
       </c>
       <c r="K2">
         <v>68</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19120.3445</v>
+        <v>19097.013000000003</v>
       </c>
       <c r="C3">
-        <v>14653.076</v>
+        <v>14593.8585</v>
       </c>
       <c r="D3">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="E3">
-        <v>19419.639825000002</v>
+        <v>19362.745300000006</v>
       </c>
       <c r="F3">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14653.076</v>
+        <v>14593.8585</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>3202970</v>
+        <v>3197581</v>
       </c>
       <c r="K3">
         <v>68</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18994.808500000006</v>
+        <v>19032.624499999998</v>
       </c>
       <c r="C4">
-        <v>14611.585000000001</v>
+        <v>14538.732999999997</v>
       </c>
       <c r="D4">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E4">
-        <v>19373.35035</v>
+        <v>19397.69485</v>
       </c>
       <c r="F4">
-        <v>212.5</v>
+        <v>244.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14611.585000000001</v>
+        <v>14538.732999999997</v>
       </c>
       <c r="I4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4">
-        <v>3187968</v>
+        <v>3196498</v>
       </c>
       <c r="K4">
         <v>68</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>19120.3445</v>
+        <v>19032.624499999998</v>
       </c>
       <c r="C5">
-        <v>14653.076</v>
+        <v>14538.732999999997</v>
       </c>
       <c r="D5">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="E5">
-        <v>19419.639825000002</v>
+        <v>19362.745300000006</v>
       </c>
       <c r="F5">
-        <v>240</v>
+        <v>244.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14653.076</v>
+        <v>14538.732999999997</v>
       </c>
       <c r="I5">
         <v>51</v>
       </c>
       <c r="J5">
-        <v>3202592</v>
+        <v>3197581</v>
       </c>
       <c r="K5">
         <v>68</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>12869</v>
+        <v>12813</v>
       </c>
       <c r="F2">
-        <v>49136</v>
+        <v>49101</v>
       </c>
       <c r="G2">
-        <v>0.0037424724969999995</v>
+        <v>0.0037261869689999994</v>
       </c>
       <c r="H2">
-        <v>0.004929874536600001</v>
+        <v>0.004908421978200001</v>
       </c>
     </row>
     <row r="3">
@@ -712,16 +712,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E5">
-        <v>189914</v>
+        <v>189930</v>
       </c>
       <c r="F5">
         <v>489119</v>
       </c>
       <c r="G5">
-        <v>0.055229460082</v>
+        <v>0.055234113089999995</v>
       </c>
       <c r="H5">
-        <v>0.0727525209996</v>
+        <v>0.072758650302</v>
       </c>
     </row>
     <row r="6">
@@ -790,16 +790,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E8">
-        <v>148339</v>
+        <v>148131</v>
       </c>
       <c r="F8">
-        <v>438730</v>
+        <v>438205</v>
       </c>
       <c r="G8">
-        <v>0.043138909606999995</v>
+        <v>0.043078420502999995</v>
       </c>
       <c r="H8">
-        <v>0.0568259117946</v>
+        <v>0.0567462308634</v>
       </c>
     </row>
     <row r="9">
@@ -842,16 +842,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E10">
-        <v>28225</v>
+        <v>28517</v>
       </c>
       <c r="F10">
-        <v>79069</v>
+        <v>79136</v>
       </c>
       <c r="G10">
-        <v>0.008208196925</v>
+        <v>0.008293114321</v>
       </c>
       <c r="H10">
-        <v>0.010812472515000001</v>
+        <v>0.010924332283800001</v>
       </c>
     </row>
     <row r="11">
@@ -920,16 +920,16 @@
         <v>image/png</v>
       </c>
       <c r="E13">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F13">
         <v>554</v>
       </c>
       <c r="G13">
-        <v>0.00032396568199999994</v>
+        <v>0.00032425649499999995</v>
       </c>
       <c r="H13">
-        <v>0.0004267526796000001</v>
+        <v>0.00042713576100000003</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +946,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E14">
-        <v>1428</v>
+        <v>1480</v>
       </c>
       <c r="F14">
         <v>2158</v>
       </c>
       <c r="G14">
-        <v>0.00041528096399999996</v>
+        <v>0.00043040323999999995</v>
       </c>
       <c r="H14">
-        <v>0.0005470402392</v>
+        <v>0.0005669604720000001</v>
       </c>
     </row>
     <row r="15">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=AAAD/d=0/rs=AN8SPfpxZ_PDqjwQqfIDlbJ_9iabaVfvFA/m=el_main_css</v>
+        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=KAAD/d=0/rs=AN8SPfrhC_4sx0aCDCE726xGqFV0GIzW_Q/m=el_main_css</v>
       </c>
       <c r="C16" t="str">
         <v>Stylesheet</v>
@@ -998,16 +998,16 @@
         <v>text/css</v>
       </c>
       <c r="E16">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="F16">
         <v>22386</v>
       </c>
       <c r="G16">
-        <v>0.0013624589049999996</v>
+        <v>0.001361877279</v>
       </c>
       <c r="H16">
-        <v>0.0017947363590000002</v>
+        <v>0.0017939701962000002</v>
       </c>
     </row>
     <row r="17">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://translate.googleapis.com/_/translate_http/_/js/k=translate_http.tr.no.RFKVd-isCsg.O/am=AAAQ/d=1/exm=el_conf/ed=1/rs=AN8SPfpSPXcoCR_ScOX7BAdWanQ_fVE77Q/m=el_main</v>
+        <v>https://translate.googleapis.com/_/translate_http/_/js/k=translate_http.tr.no.aMmkcFeYy_4.O/am=AAAQ/d=1/exm=el_conf/ed=1/rs=AN8SPfrDJ4dJGnr1o6jL-lM-AyEaBOfoFg/m=el_main</v>
       </c>
       <c r="C17" t="str">
         <v>Script</v>
@@ -1024,16 +1024,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>105126</v>
+        <v>105091</v>
       </c>
       <c r="F17">
-        <v>365505</v>
+        <v>365679</v>
       </c>
       <c r="G17">
-        <v>0.030572007437999996</v>
+        <v>0.030561828982999997</v>
       </c>
       <c r="H17">
-        <v>0.04027181525640001</v>
+        <v>0.040258407407400006</v>
       </c>
     </row>
     <row r="18">
@@ -1151,16 +1151,16 @@
         <v>application/json</v>
       </c>
       <c r="E22">
-        <v>944</v>
+        <v>972</v>
       </c>
       <c r="F22">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="G22">
-        <v>0.00027452747199999995</v>
+        <v>0.0002826702359999999</v>
       </c>
       <c r="H22">
-        <v>0.0003616288416</v>
+        <v>0.0003723551208</v>
       </c>
     </row>
     <row r="23">
@@ -1203,16 +1203,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>62201</v>
+        <v>62204</v>
       </c>
       <c r="F24">
         <v>61746</v>
       </c>
       <c r="G24">
-        <v>0.018088859412999998</v>
+        <v>0.018089731851999996</v>
       </c>
       <c r="H24">
-        <v>0.0238280461614</v>
+        <v>0.023829195405600002</v>
       </c>
     </row>
     <row r="25">
@@ -1229,16 +1229,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E25">
-        <v>48863</v>
+        <v>48864</v>
       </c>
       <c r="F25">
         <v>48425</v>
       </c>
       <c r="G25">
-        <v>0.014209995618999998</v>
+        <v>0.014210286431999997</v>
       </c>
       <c r="H25">
-        <v>0.0187185064482</v>
+        <v>0.018718889529599998</v>
       </c>
     </row>
     <row r="26">
@@ -1255,16 +1255,16 @@
         <v>image/png</v>
       </c>
       <c r="E26">
-        <v>232184</v>
+        <v>232185</v>
       </c>
       <c r="F26">
         <v>231548</v>
       </c>
       <c r="G26">
-        <v>0.06752212559199998</v>
+        <v>0.06752241640499998</v>
       </c>
       <c r="H26">
-        <v>0.08894537177760001</v>
+        <v>0.08894575485900001</v>
       </c>
     </row>
     <row r="27">
@@ -1333,16 +1333,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E29">
-        <v>49157</v>
+        <v>49159</v>
       </c>
       <c r="F29">
         <v>48719</v>
       </c>
       <c r="G29">
-        <v>0.014295494640999998</v>
+        <v>0.014296076266999998</v>
       </c>
       <c r="H29">
-        <v>0.0188311323798</v>
+        <v>0.018831898542600003</v>
       </c>
     </row>
     <row r="30">
@@ -1359,16 +1359,16 @@
         <v>text/css</v>
       </c>
       <c r="E30">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F30">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G30">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H30">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="31">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=AAAD/d=0/rs=AN8SPfpxZ_PDqjwQqfIDlbJ_9iabaVfvFA/m=el_main_css</v>
+        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=KAAD/d=0/rs=AN8SPfrhC_4sx0aCDCE726xGqFV0GIzW_Q/m=el_main_css</v>
       </c>
       <c r="C32" t="str">
         <v>Stylesheet</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5b71v897045112za200zd897045112&amp;_p=1762814294930&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=2146085955.1762814295&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528501~104684208~104684211~105322302~115583767~115616985~115938466~115938468~116217636~116217638&amp;sid=1762814295&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=658</v>
+        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1v897045112za200zd897045112&amp;_p=1763140994548&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1235870788.1763140995&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116217636~116217638~116474637&amp;sid=1763140994&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=747</v>
       </c>
       <c r="C36" t="str">
         <v>Fetch</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=2146085955.1762814295&amp;gtm=45je5b71v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528501~104684208~104684211~105322302~115583767~115616985~115938466~115938468~116217636~116217638</v>
+        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=1235870788.1763140995&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116217636~116217638~116474637</v>
       </c>
       <c r="C37" t="str">
         <v>Ping</v>
@@ -1538,13 +1538,13 @@
         <v>text/plain</v>
       </c>
       <c r="E37">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G37">
-        <v>0.000164309345</v>
+        <v>0.00016169202799999998</v>
       </c>
       <c r="H37">
-        <v>0.00021644099100000003</v>
+        <v>0.0002129932584</v>
       </c>
     </row>
     <row r="38">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=2146085955.1762814295&amp;gtm=45je5b71v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528501~104684208~104684211~105322302~115583767~115616985~115938466~115938468~116217636~116217638&amp;z=1230062472</v>
+        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=1235870788.1763140995&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116217636~116217638~116474637&amp;z=170520953</v>
       </c>
       <c r="C38" t="str">
         <v>Image</v>
@@ -1613,16 +1613,16 @@
         <v>text/css</v>
       </c>
       <c r="E40">
-        <v>52882</v>
+        <v>40246</v>
       </c>
       <c r="F40">
         <v>238784</v>
       </c>
       <c r="G40">
-        <v>0.015378773065999999</v>
+        <v>0.011704059997999998</v>
       </c>
       <c r="H40">
-        <v>0.0202581105948</v>
+        <v>0.015417494024400003</v>
       </c>
     </row>
     <row r="41">
@@ -1639,16 +1639,16 @@
         <v>text/css</v>
       </c>
       <c r="E41">
-        <v>3721</v>
+        <v>3065</v>
       </c>
       <c r="F41">
         <v>9512</v>
       </c>
       <c r="G41">
-        <v>0.0010821151729999998</v>
+        <v>0.0008913418449999999</v>
       </c>
       <c r="H41">
-        <v>0.0014254458894</v>
+        <v>0.001174144491</v>
       </c>
     </row>
     <row r="42">
@@ -1717,16 +1717,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E44">
-        <v>100661</v>
+        <v>100650</v>
       </c>
       <c r="F44">
-        <v>300703</v>
+        <v>300702</v>
       </c>
       <c r="G44">
-        <v>0.029273527392999994</v>
+        <v>0.029270328449999997</v>
       </c>
       <c r="H44">
-        <v>0.03856135680540001</v>
+        <v>0.03855714291</v>
       </c>
     </row>
     <row r="45">
@@ -1743,16 +1743,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E45">
-        <v>4686</v>
+        <v>3831</v>
       </c>
       <c r="F45">
         <v>10666</v>
       </c>
       <c r="G45">
-        <v>0.0013627497179999996</v>
+        <v>0.0011141046029999999</v>
       </c>
       <c r="H45">
-        <v>0.0017951194404000003</v>
+        <v>0.0014675848434</v>
       </c>
     </row>
     <row r="46">
@@ -1769,16 +1769,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E46">
-        <v>13701</v>
+        <v>13694</v>
       </c>
       <c r="F46">
         <v>41783</v>
       </c>
       <c r="G46">
-        <v>0.003984428912999999</v>
+        <v>0.003982393221999999</v>
       </c>
       <c r="H46">
-        <v>0.0052485982614</v>
+        <v>0.005245916691600001</v>
       </c>
     </row>
     <row r="47">
@@ -1795,16 +1795,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E47">
-        <v>27856</v>
+        <v>27850</v>
       </c>
       <c r="F47">
         <v>107468</v>
       </c>
       <c r="G47">
-        <v>0.008100886928</v>
+        <v>0.008099142049999999</v>
       </c>
       <c r="H47">
-        <v>0.010671115478400002</v>
+        <v>0.01066881699</v>
       </c>
     </row>
     <row r="48">
@@ -1821,16 +1821,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E48">
-        <v>119648</v>
+        <v>92795</v>
       </c>
       <c r="F48">
         <v>352868</v>
       </c>
       <c r="G48">
-        <v>0.034795193823999995</v>
+        <v>0.026985992334999997</v>
       </c>
       <c r="H48">
-        <v>0.04583492334720001</v>
+        <v>0.035548038513</v>
       </c>
     </row>
     <row r="49">
@@ -1890,25 +1890,25 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
+        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
       </c>
       <c r="C51" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D51" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E51">
-        <v>19979</v>
+        <v>383</v>
       </c>
       <c r="F51">
-        <v>60972</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>0.005810152926999999</v>
+        <v>0.00011138137899999999</v>
       </c>
       <c r="H51">
-        <v>0.0076535832906</v>
+        <v>0.0001467201762</v>
       </c>
     </row>
     <row r="52">
@@ -1916,25 +1916,25 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
       </c>
       <c r="C52" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D52" t="str">
-        <v>application/json</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E52">
-        <v>383</v>
+        <v>19979</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>60972</v>
       </c>
       <c r="G52">
-        <v>0.00011138137899999999</v>
+        <v>0.005810152926999999</v>
       </c>
       <c r="H52">
-        <v>0.0001467201762</v>
+        <v>0.0076535832906</v>
       </c>
     </row>
     <row r="53">
@@ -1951,16 +1951,16 @@
         <v>text/html</v>
       </c>
       <c r="E53">
-        <v>2358</v>
+        <v>2009</v>
       </c>
       <c r="F53">
         <v>5665</v>
       </c>
       <c r="G53">
-        <v>0.000685737054</v>
+        <v>0.000584243317</v>
       </c>
       <c r="H53">
-        <v>0.0009033059412000001</v>
+        <v>0.0007696105326000001</v>
       </c>
     </row>
     <row r="54">
@@ -2026,16 +2026,16 @@
         <v>text/json</v>
       </c>
       <c r="E56">
-        <v>7417</v>
+        <v>7416</v>
       </c>
       <c r="F56">
         <v>28951</v>
       </c>
       <c r="G56">
-        <v>0.0021569600209999998</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H56">
-        <v>0.0028413147438</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="57">
@@ -2078,16 +2078,16 @@
         <v>text/css</v>
       </c>
       <c r="E58">
-        <v>853</v>
+        <v>1021</v>
       </c>
       <c r="F58">
         <v>4206</v>
       </c>
       <c r="G58">
-        <v>0.00024806348899999997</v>
+        <v>0.0002969200729999999</v>
       </c>
       <c r="H58">
-        <v>0.0003267684342000001</v>
+        <v>0.0003911261094</v>
       </c>
     </row>
     <row r="59">
@@ -2104,16 +2104,16 @@
         <v>text/html</v>
       </c>
       <c r="E59">
-        <v>8742</v>
+        <v>6634</v>
       </c>
       <c r="F59">
         <v>31243</v>
       </c>
       <c r="G59">
-        <v>0.0025422872459999997</v>
+        <v>0.0019292534419999997</v>
       </c>
       <c r="H59">
-        <v>0.0033488975988</v>
+        <v>0.0025413620076</v>
       </c>
     </row>
     <row r="60">
@@ -2130,16 +2130,16 @@
         <v>image/png</v>
       </c>
       <c r="E60">
-        <v>1801</v>
+        <v>1776</v>
       </c>
       <c r="F60">
         <v>1577</v>
       </c>
       <c r="G60">
-        <v>0.0005237542129999999</v>
+        <v>0.000516483888</v>
       </c>
       <c r="H60">
-        <v>0.0006899296014</v>
+        <v>0.0006803525664000001</v>
       </c>
     </row>
     <row r="61">
@@ -2147,25 +2147,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://fonts.gstatic.com/s/encodesans/v23/LDIhapOFNxEwR-Bd1O9uYNmnUQomAgE25imKSbHLSMA6Sw_lSg.woff2</v>
+        <v>https://sspkalender.prokom.no/api/kategori/?Kunde=nordrefollo</v>
       </c>
       <c r="C61" t="str">
-        <v>Font</v>
+        <v>XHR</v>
       </c>
       <c r="D61" t="str">
-        <v>font/woff2</v>
+        <v>application/json</v>
       </c>
       <c r="E61">
-        <v>28821</v>
+        <v>1836</v>
       </c>
       <c r="F61">
-        <v>28792</v>
+        <v>8512</v>
       </c>
       <c r="G61">
-        <v>0.008381521473</v>
+        <v>0.0005339326679999999</v>
       </c>
       <c r="H61">
-        <v>0.011040789029400002</v>
+        <v>0.0007033374504</v>
       </c>
     </row>
     <row r="62">
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://sspkalender.prokom.no/api/kategori/?Kunde=nordrefollo</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=39&amp;SearchText=&amp;DateFrom=14.11.2025&amp;DateTo=14.11.2026&amp;Municipalities=0&amp;Kunde=nordrefollo&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=3&amp;Distributor=</v>
       </c>
       <c r="C62" t="str">
         <v>XHR</v>
@@ -2182,16 +2182,16 @@
         <v>application/json</v>
       </c>
       <c r="E62">
-        <v>1804</v>
+        <v>4603</v>
       </c>
       <c r="F62">
-        <v>8211</v>
+        <v>24700</v>
       </c>
       <c r="G62">
-        <v>0.0005246266519999999</v>
+        <v>0.0013386122389999998</v>
       </c>
       <c r="H62">
-        <v>0.0006910788456000001</v>
+        <v>0.0017633236842000003</v>
       </c>
     </row>
     <row r="63">
@@ -2199,25 +2199,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=39&amp;SearchText=&amp;DateFrom=10.11.2025&amp;DateTo=10.11.2026&amp;Municipalities=0&amp;Kunde=nordrefollo&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=3&amp;Distributor=</v>
+        <v>https://fonts.gstatic.com/s/encodesans/v23/LDIhapOFNxEwR-Bd1O9uYNmnUQomAgE25imKSbHLSMA6Sw_lSg.woff2</v>
       </c>
       <c r="C63" t="str">
-        <v>XHR</v>
+        <v>Font</v>
       </c>
       <c r="D63" t="str">
-        <v>application/json</v>
+        <v>font/woff2</v>
       </c>
       <c r="E63">
-        <v>4637</v>
+        <v>28821</v>
       </c>
       <c r="F63">
-        <v>28574</v>
+        <v>28792</v>
       </c>
       <c r="G63">
-        <v>0.001348499881</v>
+        <v>0.008381521473</v>
       </c>
       <c r="H63">
-        <v>0.0017763484518000003</v>
+        <v>0.011040789029400002</v>
       </c>
     </row>
     <row r="64">
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLanghus_pen_barnehage_3_2__1448983375.jpg%26dh%3D262%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dknytte_sko_3__764026988.jpg%26dh%3D467%26dw%3D350</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
@@ -2312,16 +2312,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E67">
-        <v>64977</v>
+        <v>51286</v>
       </c>
       <c r="F67">
-        <v>64398</v>
+        <v>50692</v>
       </c>
       <c r="G67">
-        <v>0.018896156300999997</v>
+        <v>0.014914635517999998</v>
       </c>
       <c r="H67">
-        <v>0.024891480127800004</v>
+        <v>0.019646712680400007</v>
       </c>
     </row>
     <row r="68">
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DSkjermbilde_2025-09-02_kl._13.48.27_243316918.png%26dh%3D254%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DD964FCF56836C18CDDE84C04163E4BB3F73827CD_709592256.png%26dh%3D350%26dw%3D350</v>
       </c>
       <c r="C68" t="str">
         <v>Image</v>
@@ -2338,16 +2338,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E68">
-        <v>53210</v>
+        <v>68858</v>
       </c>
       <c r="F68">
-        <v>52828</v>
+        <v>68256</v>
       </c>
       <c r="G68">
-        <v>0.01547415973</v>
+        <v>0.020024801553999997</v>
       </c>
       <c r="H68">
-        <v>0.020383761293999998</v>
+        <v>0.0263782190412</v>
       </c>
     </row>
     <row r="69">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLysdesign_Workshop_-_1920x1080_1__1900912943.png%26dh%3D197%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D340B67AA560CBDC2C89A9B41CB96ED96A9ED5D78_46434513.jpg%26dh%3D197%26dw%3D350</v>
       </c>
       <c r="C69" t="str">
         <v>Image</v>
@@ -2364,16 +2364,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E69">
-        <v>56042</v>
+        <v>92460</v>
       </c>
       <c r="F69">
-        <v>55659</v>
+        <v>91849</v>
       </c>
       <c r="G69">
-        <v>0.016297742145999997</v>
+        <v>0.026888569979999995</v>
       </c>
       <c r="H69">
-        <v>0.021468647818800004</v>
+        <v>0.03541970624400001</v>
       </c>
     </row>
     <row r="70">
@@ -2390,16 +2390,16 @@
         <v>text/html</v>
       </c>
       <c r="E70">
-        <v>12869</v>
+        <v>12814</v>
       </c>
       <c r="F70">
-        <v>49136</v>
+        <v>49101</v>
       </c>
       <c r="G70">
-        <v>0.0037424724969999995</v>
+        <v>0.0037264777819999997</v>
       </c>
       <c r="H70">
-        <v>0.004929874536600001</v>
+        <v>0.0049088050596</v>
       </c>
     </row>
     <row r="71">
@@ -2416,16 +2416,16 @@
         <v>text/css</v>
       </c>
       <c r="E71">
-        <v>81203</v>
+        <v>81201</v>
       </c>
       <c r="F71">
         <v>350879</v>
       </c>
       <c r="G71">
-        <v>0.023614888038999995</v>
+        <v>0.023614306412999997</v>
       </c>
       <c r="H71">
-        <v>0.0311073589242</v>
+        <v>0.031106592761399997</v>
       </c>
     </row>
     <row r="72">
@@ -2468,16 +2468,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E73">
-        <v>189932</v>
+        <v>189914</v>
       </c>
       <c r="F73">
         <v>489119</v>
       </c>
       <c r="G73">
-        <v>0.05523469471599999</v>
+        <v>0.055229460082</v>
       </c>
       <c r="H73">
-        <v>0.0727594164648</v>
+        <v>0.0727525209996</v>
       </c>
     </row>
     <row r="74">
@@ -2494,16 +2494,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E74">
-        <v>422358</v>
+        <v>422356</v>
       </c>
       <c r="F74">
         <v>1639501</v>
       </c>
       <c r="G74">
-        <v>0.12282719705399998</v>
+        <v>0.122826615428</v>
       </c>
       <c r="H74">
-        <v>0.16179749394120002</v>
+        <v>0.1617967277784</v>
       </c>
     </row>
     <row r="75">
@@ -2546,16 +2546,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E76">
-        <v>148339</v>
+        <v>148131</v>
       </c>
       <c r="F76">
-        <v>438747</v>
+        <v>438205</v>
       </c>
       <c r="G76">
-        <v>0.043138909606999995</v>
+        <v>0.043078420502999995</v>
       </c>
       <c r="H76">
-        <v>0.0568259117946</v>
+        <v>0.0567462308634</v>
       </c>
     </row>
     <row r="77">
@@ -2598,16 +2598,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E78">
-        <v>28225</v>
+        <v>28407</v>
       </c>
       <c r="F78">
-        <v>79069</v>
+        <v>79136</v>
       </c>
       <c r="G78">
-        <v>0.008208196925</v>
+        <v>0.008261124891</v>
       </c>
       <c r="H78">
-        <v>0.010812472515000001</v>
+        <v>0.010882193329800002</v>
       </c>
     </row>
     <row r="79">
@@ -2702,16 +2702,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E82">
-        <v>1428</v>
+        <v>1480</v>
       </c>
       <c r="F82">
         <v>2158</v>
       </c>
       <c r="G82">
-        <v>0.00041528096399999996</v>
+        <v>0.00043040323999999995</v>
       </c>
       <c r="H82">
-        <v>0.0005470402392</v>
+        <v>0.0005669604720000001</v>
       </c>
     </row>
     <row r="83">
@@ -2745,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=AAAD/d=0/rs=AN8SPfpxZ_PDqjwQqfIDlbJ_9iabaVfvFA/m=el_main_css</v>
+        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=KAAD/d=0/rs=AN8SPfrhC_4sx0aCDCE726xGqFV0GIzW_Q/m=el_main_css</v>
       </c>
       <c r="C84" t="str">
         <v>Stylesheet</v>
@@ -2754,16 +2754,16 @@
         <v>text/css</v>
       </c>
       <c r="E84">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="F84">
         <v>22386</v>
       </c>
       <c r="G84">
-        <v>0.0013624589049999996</v>
+        <v>0.001361877279</v>
       </c>
       <c r="H84">
-        <v>0.0017947363590000002</v>
+        <v>0.0017939701962000002</v>
       </c>
     </row>
     <row r="85">
@@ -2771,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://translate.googleapis.com/_/translate_http/_/js/k=translate_http.tr.no.RFKVd-isCsg.O/am=AAAQ/d=1/exm=el_conf/ed=1/rs=AN8SPfpSPXcoCR_ScOX7BAdWanQ_fVE77Q/m=el_main</v>
+        <v>https://translate.googleapis.com/_/translate_http/_/js/k=translate_http.tr.no.aMmkcFeYy_4.O/am=AAAQ/d=1/exm=el_conf/ed=1/rs=AN8SPfrDJ4dJGnr1o6jL-lM-AyEaBOfoFg/m=el_main</v>
       </c>
       <c r="C85" t="str">
         <v>Script</v>
@@ -2780,16 +2780,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E85">
-        <v>104987</v>
+        <v>105091</v>
       </c>
       <c r="F85">
-        <v>365505</v>
+        <v>365679</v>
       </c>
       <c r="G85">
-        <v>0.030531584430999997</v>
+        <v>0.030561828982999997</v>
       </c>
       <c r="H85">
-        <v>0.0402185669418</v>
+        <v>0.040258407407400006</v>
       </c>
     </row>
     <row r="86">
@@ -2907,16 +2907,16 @@
         <v>application/json</v>
       </c>
       <c r="E90">
-        <v>944</v>
+        <v>970</v>
       </c>
       <c r="F90">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="G90">
-        <v>0.00027452747199999995</v>
+        <v>0.00028208861</v>
       </c>
       <c r="H90">
-        <v>0.0003616288416</v>
+        <v>0.0003715889580000001</v>
       </c>
     </row>
     <row r="91">
@@ -2933,16 +2933,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E91">
-        <v>43419</v>
+        <v>43427</v>
       </c>
       <c r="F91">
         <v>42989</v>
       </c>
       <c r="G91">
-        <v>0.012626809646999998</v>
+        <v>0.012629136150999998</v>
       </c>
       <c r="H91">
-        <v>0.016633011306600002</v>
+        <v>0.016636075957800006</v>
       </c>
     </row>
     <row r="92">
@@ -2985,16 +2985,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E93">
-        <v>48863</v>
+        <v>48864</v>
       </c>
       <c r="F93">
         <v>48425</v>
       </c>
       <c r="G93">
-        <v>0.014209995618999998</v>
+        <v>0.014210286431999997</v>
       </c>
       <c r="H93">
-        <v>0.0187185064482</v>
+        <v>0.018718889529599998</v>
       </c>
     </row>
     <row r="94">
@@ -3011,16 +3011,16 @@
         <v>image/png</v>
       </c>
       <c r="E94">
-        <v>232185</v>
+        <v>232193</v>
       </c>
       <c r="F94">
         <v>231548</v>
       </c>
       <c r="G94">
-        <v>0.06752241640499998</v>
+        <v>0.067524742909</v>
       </c>
       <c r="H94">
-        <v>0.08894575485900001</v>
+        <v>0.0889488195102</v>
       </c>
     </row>
     <row r="95">
@@ -3037,16 +3037,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E95">
-        <v>19725</v>
+        <v>19724</v>
       </c>
       <c r="F95">
         <v>19315</v>
       </c>
       <c r="G95">
-        <v>0.005736286424999999</v>
+        <v>0.005735995611999999</v>
       </c>
       <c r="H95">
-        <v>0.007556280615000001</v>
+        <v>0.007555897533600002</v>
       </c>
     </row>
     <row r="96">
@@ -3063,16 +3063,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E96">
-        <v>25042</v>
+        <v>25049</v>
       </c>
       <c r="F96">
         <v>24631</v>
       </c>
       <c r="G96">
-        <v>0.007282539145999999</v>
+        <v>0.007284574836999999</v>
       </c>
       <c r="H96">
-        <v>0.0095931244188</v>
+        <v>0.009595805988600003</v>
       </c>
     </row>
     <row r="97">
@@ -3089,16 +3089,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E97">
-        <v>49161</v>
+        <v>49158</v>
       </c>
       <c r="F97">
         <v>48719</v>
       </c>
       <c r="G97">
-        <v>0.014296657892999998</v>
+        <v>0.014295785453999997</v>
       </c>
       <c r="H97">
-        <v>0.0188326647054</v>
+        <v>0.018831515461200002</v>
       </c>
     </row>
     <row r="98">
@@ -3115,16 +3115,16 @@
         <v>text/css</v>
       </c>
       <c r="E98">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F98">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G98">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H98">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="99">
@@ -3141,16 +3141,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E99">
-        <v>325294</v>
+        <v>325285</v>
       </c>
       <c r="F99">
         <v>1249958</v>
       </c>
       <c r="G99">
-        <v>0.09459972402199998</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H99">
-        <v>0.12461408093160001</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="100">
@@ -3158,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=AAAD/d=0/rs=AN8SPfpxZ_PDqjwQqfIDlbJ_9iabaVfvFA/m=el_main_css</v>
+        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=KAAD/d=0/rs=AN8SPfrhC_4sx0aCDCE726xGqFV0GIzW_Q/m=el_main_css</v>
       </c>
       <c r="C100" t="str">
         <v>Stylesheet</v>
@@ -3262,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="str">
-        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5b71v897045112za200zd897045112&amp;_p=1762814309795&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1266595418.1762814310&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528501~104573694~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;sid=1762814309&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=775</v>
+        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1v897045112za200zd897045112&amp;_p=1763141009611&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1541439540.1763141010&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115495938~115583767~115938465~115938468~116217636~116217638~116474637&amp;sid=1763141009&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=646</v>
       </c>
       <c r="C104" t="str">
         <v>Fetch</v>
@@ -3285,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="str">
-        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=1266595418.1762814310&amp;gtm=45je5b71v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528501~104573694~104684208~104684211~115583767~115938466~115938469~116217636~116217638</v>
+        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=1541439540.1763141010&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115495938~115583767~115938465~115938468~116217636~116217638~116474637</v>
       </c>
       <c r="C105" t="str">
         <v>Ping</v>
@@ -3294,13 +3294,13 @@
         <v>text/plain</v>
       </c>
       <c r="E105">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G105">
-        <v>0.000164309345</v>
+        <v>0.00016169202799999998</v>
       </c>
       <c r="H105">
-        <v>0.00021644099100000003</v>
+        <v>0.0002129932584</v>
       </c>
     </row>
     <row r="106">
@@ -3308,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=1266595418.1762814310&amp;gtm=45je5b71v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528501~104573694~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;z=1564192413</v>
+        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=1541439540.1763141010&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115495938~115583767~115938465~115938468~116217636~116217638~116474637&amp;z=433545022</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3369,16 +3369,16 @@
         <v>text/css</v>
       </c>
       <c r="E108">
-        <v>52882</v>
+        <v>40246</v>
       </c>
       <c r="F108">
         <v>238784</v>
       </c>
       <c r="G108">
-        <v>0.015378773065999999</v>
+        <v>0.011704059997999998</v>
       </c>
       <c r="H108">
-        <v>0.0202581105948</v>
+        <v>0.015417494024400003</v>
       </c>
     </row>
     <row r="109">
@@ -3395,16 +3395,16 @@
         <v>text/css</v>
       </c>
       <c r="E109">
-        <v>3721</v>
+        <v>3065</v>
       </c>
       <c r="F109">
         <v>9512</v>
       </c>
       <c r="G109">
-        <v>0.0010821151729999998</v>
+        <v>0.0008913418449999999</v>
       </c>
       <c r="H109">
-        <v>0.0014254458894</v>
+        <v>0.001174144491</v>
       </c>
     </row>
     <row r="110">
@@ -3473,16 +3473,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E112">
-        <v>100661</v>
+        <v>100651</v>
       </c>
       <c r="F112">
-        <v>300703</v>
+        <v>300702</v>
       </c>
       <c r="G112">
-        <v>0.029273527392999994</v>
+        <v>0.029270619262999998</v>
       </c>
       <c r="H112">
-        <v>0.03856135680540001</v>
+        <v>0.038557525991400006</v>
       </c>
     </row>
     <row r="113">
@@ -3499,16 +3499,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E113">
-        <v>4686</v>
+        <v>3831</v>
       </c>
       <c r="F113">
         <v>10666</v>
       </c>
       <c r="G113">
-        <v>0.0013627497179999996</v>
+        <v>0.0011141046029999999</v>
       </c>
       <c r="H113">
-        <v>0.0017951194404000003</v>
+        <v>0.0014675848434</v>
       </c>
     </row>
     <row r="114">
@@ -3525,16 +3525,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E114">
-        <v>13701</v>
+        <v>13671</v>
       </c>
       <c r="F114">
         <v>41783</v>
       </c>
       <c r="G114">
-        <v>0.003984428912999999</v>
+        <v>0.003975704522999999</v>
       </c>
       <c r="H114">
-        <v>0.0052485982614</v>
+        <v>0.0052371058194</v>
       </c>
     </row>
     <row r="115">
@@ -3551,16 +3551,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E115">
-        <v>27842</v>
+        <v>27877</v>
       </c>
       <c r="F115">
         <v>107468</v>
       </c>
       <c r="G115">
-        <v>0.008096815545999999</v>
+        <v>0.008106994000999998</v>
       </c>
       <c r="H115">
-        <v>0.0106657523388</v>
+        <v>0.010679160187800001</v>
       </c>
     </row>
     <row r="116">
@@ -3577,16 +3577,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E116">
-        <v>119622</v>
+        <v>92795</v>
       </c>
       <c r="F116">
         <v>352868</v>
       </c>
       <c r="G116">
-        <v>0.034787632686</v>
+        <v>0.026985992334999997</v>
       </c>
       <c r="H116">
-        <v>0.0458249632308</v>
+        <v>0.035548038513</v>
       </c>
     </row>
     <row r="117">
@@ -3707,16 +3707,16 @@
         <v>text/html</v>
       </c>
       <c r="E121">
-        <v>2358</v>
+        <v>2009</v>
       </c>
       <c r="F121">
         <v>5665</v>
       </c>
       <c r="G121">
-        <v>0.000685737054</v>
+        <v>0.000584243317</v>
       </c>
       <c r="H121">
-        <v>0.0009033059412000001</v>
+        <v>0.0007696105326000001</v>
       </c>
     </row>
     <row r="122">
@@ -3724,22 +3724,25 @@
         <v>2</v>
       </c>
       <c r="B122" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/site.webmanifest</v>
       </c>
       <c r="C122" t="str">
-        <v>Preflight</v>
+        <v>Manifest</v>
       </c>
       <c r="D122" t="str">
-        <v/>
+        <v>application/octet-stream</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>653</v>
+      </c>
+      <c r="F122">
+        <v>263</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>0.00018990088899999998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>0.0002501521542</v>
       </c>
     </row>
     <row r="123">
@@ -3750,22 +3753,19 @@
         <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C123" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D123" t="str">
-        <v>text/json</v>
+        <v/>
       </c>
       <c r="E123">
-        <v>7416</v>
-      </c>
-      <c r="F123">
-        <v>28951</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.0021566692079999995</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>0.0028409316624000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3773,25 +3773,25 @@
         <v>2</v>
       </c>
       <c r="B124" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C124" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D124" t="str">
-        <v>image/svg+xml</v>
+        <v>text/json</v>
       </c>
       <c r="E124">
-        <v>25480</v>
+        <v>7417</v>
       </c>
       <c r="F124">
-        <v>25102</v>
+        <v>28951</v>
       </c>
       <c r="G124">
-        <v>0.0074099152399999995</v>
+        <v>0.0021569600209999998</v>
       </c>
       <c r="H124">
-        <v>0.009760914072</v>
+        <v>0.0028413147438</v>
       </c>
     </row>
     <row r="125">
@@ -3799,25 +3799,25 @@
         <v>2</v>
       </c>
       <c r="B125" t="str">
-        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/site.webmanifest</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
       </c>
       <c r="C125" t="str">
-        <v>Manifest</v>
+        <v>Image</v>
       </c>
       <c r="D125" t="str">
-        <v>application/octet-stream</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E125">
-        <v>651</v>
+        <v>25480</v>
       </c>
       <c r="F125">
-        <v>263</v>
+        <v>25102</v>
       </c>
       <c r="G125">
-        <v>0.00018931926299999997</v>
+        <v>0.0074099152399999995</v>
       </c>
       <c r="H125">
-        <v>0.00024938599140000004</v>
+        <v>0.009760914072</v>
       </c>
     </row>
     <row r="126">
@@ -3834,16 +3834,16 @@
         <v>text/css</v>
       </c>
       <c r="E126">
-        <v>1021</v>
+        <v>876</v>
       </c>
       <c r="F126">
         <v>4206</v>
       </c>
       <c r="G126">
-        <v>0.0002969200729999999</v>
+        <v>0.00025475218799999997</v>
       </c>
       <c r="H126">
-        <v>0.0003911261094</v>
+        <v>0.0003355793064</v>
       </c>
     </row>
     <row r="127">
@@ -3860,16 +3860,16 @@
         <v>text/html</v>
       </c>
       <c r="E127">
-        <v>8742</v>
+        <v>6634</v>
       </c>
       <c r="F127">
         <v>31243</v>
       </c>
       <c r="G127">
-        <v>0.0025422872459999997</v>
+        <v>0.0019292534419999997</v>
       </c>
       <c r="H127">
-        <v>0.0033488975988</v>
+        <v>0.0025413620076</v>
       </c>
     </row>
     <row r="128">
@@ -3886,16 +3886,16 @@
         <v>image/png</v>
       </c>
       <c r="E128">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F128">
         <v>1577</v>
       </c>
       <c r="G128">
-        <v>0.0005170655139999998</v>
+        <v>0.000516483888</v>
       </c>
       <c r="H128">
-        <v>0.0006811187292000001</v>
+        <v>0.0006803525664000001</v>
       </c>
     </row>
     <row r="129">
@@ -3903,25 +3903,25 @@
         <v>2</v>
       </c>
       <c r="B129" t="str">
-        <v>https://sspkalender.prokom.no/api/kategori/?Kunde=nordrefollo</v>
+        <v>https://fonts.gstatic.com/s/encodesans/v23/LDIhapOFNxEwR-Bd1O9uYNmnUQomAgE25imKSbHLSMA6Sw_lSg.woff2</v>
       </c>
       <c r="C129" t="str">
-        <v>XHR</v>
+        <v>Font</v>
       </c>
       <c r="D129" t="str">
-        <v>application/json</v>
+        <v>font/woff2</v>
       </c>
       <c r="E129">
-        <v>1804</v>
+        <v>28821</v>
       </c>
       <c r="F129">
-        <v>8211</v>
+        <v>28792</v>
       </c>
       <c r="G129">
-        <v>0.0005246266519999999</v>
+        <v>0.008381521473</v>
       </c>
       <c r="H129">
-        <v>0.0006910788456000001</v>
+        <v>0.011040789029400002</v>
       </c>
     </row>
     <row r="130">
@@ -3929,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=39&amp;SearchText=&amp;DateFrom=10.11.2025&amp;DateTo=10.11.2026&amp;Municipalities=0&amp;Kunde=nordrefollo&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=3&amp;Distributor=</v>
+        <v>https://sspkalender.prokom.no/api/kategori/?Kunde=nordrefollo</v>
       </c>
       <c r="C130" t="str">
         <v>XHR</v>
@@ -3938,16 +3938,16 @@
         <v>application/json</v>
       </c>
       <c r="E130">
-        <v>4637</v>
+        <v>1836</v>
       </c>
       <c r="F130">
-        <v>28574</v>
+        <v>8512</v>
       </c>
       <c r="G130">
-        <v>0.001348499881</v>
+        <v>0.0005339326679999999</v>
       </c>
       <c r="H130">
-        <v>0.0017763484518000003</v>
+        <v>0.0007033374504</v>
       </c>
     </row>
     <row r="131">
@@ -3955,25 +3955,25 @@
         <v>2</v>
       </c>
       <c r="B131" t="str">
-        <v>https://fonts.gstatic.com/s/encodesans/v23/LDIhapOFNxEwR-Bd1O9uYNmnUQomAgE25imKSbHLSMA6Sw_lSg.woff2</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=39&amp;SearchText=&amp;DateFrom=14.11.2025&amp;DateTo=14.11.2026&amp;Municipalities=0&amp;Kunde=nordrefollo&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=3&amp;Distributor=</v>
       </c>
       <c r="C131" t="str">
-        <v>Font</v>
+        <v>XHR</v>
       </c>
       <c r="D131" t="str">
-        <v>font/woff2</v>
+        <v>application/json</v>
       </c>
       <c r="E131">
-        <v>28821</v>
+        <v>4603</v>
       </c>
       <c r="F131">
-        <v>28792</v>
+        <v>24700</v>
       </c>
       <c r="G131">
-        <v>0.008381521473</v>
+        <v>0.0013386122389999998</v>
       </c>
       <c r="H131">
-        <v>0.011040789029400002</v>
+        <v>0.0017633236842000003</v>
       </c>
     </row>
     <row r="132">
@@ -4059,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="B135" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLanghus_pen_barnehage_3_2__1448983375.jpg%26dh%3D262%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dknytte_sko_3__764026988.jpg%26dh%3D467%26dw%3D350</v>
       </c>
       <c r="C135" t="str">
         <v>Image</v>
@@ -4068,16 +4068,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E135">
-        <v>64935</v>
+        <v>51286</v>
       </c>
       <c r="F135">
-        <v>64398</v>
+        <v>50692</v>
       </c>
       <c r="G135">
-        <v>0.018883942154999996</v>
+        <v>0.014914635517999998</v>
       </c>
       <c r="H135">
-        <v>0.024875390709000002</v>
+        <v>0.019646712680400007</v>
       </c>
     </row>
     <row r="136">
@@ -4085,7 +4085,7 @@
         <v>2</v>
       </c>
       <c r="B136" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DSkjermbilde_2025-09-02_kl._13.48.27_243316918.png%26dh%3D254%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DD964FCF56836C18CDDE84C04163E4BB3F73827CD_709592256.png%26dh%3D350%26dw%3D350</v>
       </c>
       <c r="C136" t="str">
         <v>Image</v>
@@ -4094,16 +4094,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E136">
-        <v>53420</v>
+        <v>68858</v>
       </c>
       <c r="F136">
-        <v>52828</v>
+        <v>68256</v>
       </c>
       <c r="G136">
-        <v>0.015535230459999997</v>
+        <v>0.020024801553999997</v>
       </c>
       <c r="H136">
-        <v>0.020464208388000005</v>
+        <v>0.0263782190412</v>
       </c>
     </row>
     <row r="137">
@@ -4111,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLysdesign_Workshop_-_1920x1080_1__1900912943.png%26dh%3D197%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D340B67AA560CBDC2C89A9B41CB96ED96A9ED5D78_46434513.jpg%26dh%3D197%26dw%3D350</v>
       </c>
       <c r="C137" t="str">
         <v>Image</v>
@@ -4120,16 +4120,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E137">
-        <v>56252</v>
+        <v>92460</v>
       </c>
       <c r="F137">
-        <v>55659</v>
+        <v>91849</v>
       </c>
       <c r="G137">
-        <v>0.016358812875999995</v>
+        <v>0.026888569979999995</v>
       </c>
       <c r="H137">
-        <v>0.021549094912800004</v>
+        <v>0.03541970624400001</v>
       </c>
     </row>
     <row r="138">
@@ -4146,16 +4146,16 @@
         <v>text/html</v>
       </c>
       <c r="E138">
-        <v>12866</v>
+        <v>12814</v>
       </c>
       <c r="F138">
-        <v>49136</v>
+        <v>49101</v>
       </c>
       <c r="G138">
-        <v>0.003741600057999999</v>
+        <v>0.0037264777819999997</v>
       </c>
       <c r="H138">
-        <v>0.0049287252924</v>
+        <v>0.0049088050596</v>
       </c>
     </row>
     <row r="139">
@@ -4172,16 +4172,16 @@
         <v>text/css</v>
       </c>
       <c r="E139">
-        <v>81203</v>
+        <v>81201</v>
       </c>
       <c r="F139">
         <v>350879</v>
       </c>
       <c r="G139">
-        <v>0.023614888038999995</v>
+        <v>0.023614306412999997</v>
       </c>
       <c r="H139">
-        <v>0.0311073589242</v>
+        <v>0.031106592761399997</v>
       </c>
     </row>
     <row r="140">
@@ -4224,16 +4224,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E141">
-        <v>189932</v>
+        <v>189914</v>
       </c>
       <c r="F141">
         <v>489119</v>
       </c>
       <c r="G141">
-        <v>0.05523469471599999</v>
+        <v>0.055229460082</v>
       </c>
       <c r="H141">
-        <v>0.0727594164648</v>
+        <v>0.0727525209996</v>
       </c>
     </row>
     <row r="142">
@@ -4302,16 +4302,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E144">
-        <v>148339</v>
+        <v>148128</v>
       </c>
       <c r="F144">
-        <v>438730</v>
+        <v>438205</v>
       </c>
       <c r="G144">
-        <v>0.043138909606999995</v>
+        <v>0.043077548064</v>
       </c>
       <c r="H144">
-        <v>0.0568259117946</v>
+        <v>0.05674508161920001</v>
       </c>
     </row>
     <row r="145">
@@ -4328,16 +4328,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E145">
-        <v>7472</v>
+        <v>7474</v>
       </c>
       <c r="F145">
         <v>7263</v>
       </c>
       <c r="G145">
-        <v>0.002172954736</v>
+        <v>0.002173536362</v>
       </c>
       <c r="H145">
-        <v>0.0028623842207999997</v>
+        <v>0.0028631503836000004</v>
       </c>
     </row>
     <row r="146">
@@ -4354,16 +4354,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E146">
-        <v>28225</v>
+        <v>28407</v>
       </c>
       <c r="F146">
-        <v>79069</v>
+        <v>79136</v>
       </c>
       <c r="G146">
-        <v>0.008208196925</v>
+        <v>0.008261124891</v>
       </c>
       <c r="H146">
-        <v>0.010812472515000001</v>
+        <v>0.010882193329800002</v>
       </c>
     </row>
     <row r="147">
@@ -4406,16 +4406,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E148">
-        <v>932</v>
+        <v>653</v>
       </c>
       <c r="F148">
         <v>703</v>
       </c>
       <c r="G148">
-        <v>0.00027103771599999997</v>
+        <v>0.00018990088899999998</v>
       </c>
       <c r="H148">
-        <v>0.00035703186480000006</v>
+        <v>0.0002501521542</v>
       </c>
     </row>
     <row r="149">
@@ -4432,16 +4432,16 @@
         <v>image/png</v>
       </c>
       <c r="E149">
-        <v>1115</v>
+        <v>940</v>
       </c>
       <c r="F149">
         <v>554</v>
       </c>
       <c r="G149">
-        <v>0.00032425649499999995</v>
+        <v>0.00027336421999999994</v>
       </c>
       <c r="H149">
-        <v>0.00042713576100000003</v>
+        <v>0.00036009651599999996</v>
       </c>
     </row>
     <row r="150">
@@ -4458,16 +4458,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E150">
-        <v>1480</v>
+        <v>1415</v>
       </c>
       <c r="F150">
         <v>2158</v>
       </c>
       <c r="G150">
-        <v>0.00043040323999999995</v>
+        <v>0.00041150039499999997</v>
       </c>
       <c r="H150">
-        <v>0.0005669604720000001</v>
+        <v>0.0005420601810000001</v>
       </c>
     </row>
     <row r="151">
@@ -4484,16 +4484,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E151">
-        <v>894</v>
+        <v>638</v>
       </c>
       <c r="F151">
         <v>700</v>
       </c>
       <c r="G151">
-        <v>0.00025998682199999994</v>
+        <v>0.00018553869399999998</v>
       </c>
       <c r="H151">
-        <v>0.0003424747716000001</v>
+        <v>0.0002444059332</v>
       </c>
     </row>
     <row r="152">
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="str">
-        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=AAAD/d=0/rs=AN8SPfpxZ_PDqjwQqfIDlbJ_9iabaVfvFA/m=el_main_css</v>
+        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=KAAD/d=0/rs=AN8SPfrhC_4sx0aCDCE726xGqFV0GIzW_Q/m=el_main_css</v>
       </c>
       <c r="C152" t="str">
         <v>Stylesheet</v>
@@ -4510,16 +4510,16 @@
         <v>text/css</v>
       </c>
       <c r="E152">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="F152">
         <v>22386</v>
       </c>
       <c r="G152">
-        <v>0.0013624589049999996</v>
+        <v>0.001361877279</v>
       </c>
       <c r="H152">
-        <v>0.0017947363590000002</v>
+        <v>0.0017939701962000002</v>
       </c>
     </row>
     <row r="153">
@@ -4527,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="B153" t="str">
-        <v>https://translate.googleapis.com/_/translate_http/_/js/k=translate_http.tr.no.RFKVd-isCsg.O/am=AAAQ/d=1/exm=el_conf/ed=1/rs=AN8SPfpSPXcoCR_ScOX7BAdWanQ_fVE77Q/m=el_main</v>
+        <v>https://translate.googleapis.com/_/translate_http/_/js/k=translate_http.tr.no.aMmkcFeYy_4.O/am=AAAQ/d=1/exm=el_conf/ed=1/rs=AN8SPfrDJ4dJGnr1o6jL-lM-AyEaBOfoFg/m=el_main</v>
       </c>
       <c r="C153" t="str">
         <v>Script</v>
@@ -4536,16 +4536,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E153">
-        <v>104987</v>
+        <v>105091</v>
       </c>
       <c r="F153">
-        <v>365505</v>
+        <v>365679</v>
       </c>
       <c r="G153">
-        <v>0.030531584430999997</v>
+        <v>0.030561828982999997</v>
       </c>
       <c r="H153">
-        <v>0.0402185669418</v>
+        <v>0.040258407407400006</v>
       </c>
     </row>
     <row r="154">
@@ -4663,16 +4663,16 @@
         <v>application/json</v>
       </c>
       <c r="E158">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="F158">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="G158">
-        <v>0.000273945846</v>
+        <v>0.00028208861</v>
       </c>
       <c r="H158">
-        <v>0.00036086267880000003</v>
+        <v>0.0003715889580000001</v>
       </c>
     </row>
     <row r="159">
@@ -4715,16 +4715,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E160">
-        <v>62202</v>
+        <v>62194</v>
       </c>
       <c r="F160">
         <v>61746</v>
       </c>
       <c r="G160">
-        <v>0.018089150225999998</v>
+        <v>0.018086823721999996</v>
       </c>
       <c r="H160">
-        <v>0.023828429242800004</v>
+        <v>0.0238253645916</v>
       </c>
     </row>
     <row r="161">
@@ -4741,16 +4741,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E161">
-        <v>48865</v>
+        <v>48857</v>
       </c>
       <c r="F161">
         <v>48425</v>
       </c>
       <c r="G161">
-        <v>0.014210577244999998</v>
+        <v>0.014208250740999998</v>
       </c>
       <c r="H161">
-        <v>0.018719272611</v>
+        <v>0.018716207959800002</v>
       </c>
     </row>
     <row r="162">
@@ -4793,16 +4793,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E163">
-        <v>19724</v>
+        <v>19715</v>
       </c>
       <c r="F163">
         <v>19315</v>
       </c>
       <c r="G163">
-        <v>0.005735995611999999</v>
+        <v>0.005733378294999999</v>
       </c>
       <c r="H163">
-        <v>0.007555897533600002</v>
+        <v>0.007552449801000002</v>
       </c>
     </row>
     <row r="164">
@@ -4819,16 +4819,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E164">
-        <v>25040</v>
+        <v>25042</v>
       </c>
       <c r="F164">
         <v>24631</v>
       </c>
       <c r="G164">
-        <v>0.007281957519999999</v>
+        <v>0.007282539145999999</v>
       </c>
       <c r="H164">
-        <v>0.009592358256</v>
+        <v>0.0095931244188</v>
       </c>
     </row>
     <row r="165">
@@ -4845,16 +4845,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E165">
-        <v>49159</v>
+        <v>49151</v>
       </c>
       <c r="F165">
         <v>48719</v>
       </c>
       <c r="G165">
-        <v>0.014296076266999998</v>
+        <v>0.014293749762999998</v>
       </c>
       <c r="H165">
-        <v>0.018831898542600003</v>
+        <v>0.0188288338914</v>
       </c>
     </row>
     <row r="166">
@@ -4871,16 +4871,16 @@
         <v>text/css</v>
       </c>
       <c r="E166">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F166">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G166">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H166">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="167">
@@ -4897,16 +4897,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E167">
-        <v>325294</v>
+        <v>325285</v>
       </c>
       <c r="F167">
         <v>1249958</v>
       </c>
       <c r="G167">
-        <v>0.09459972402199998</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H167">
-        <v>0.12461408093160001</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="168">
@@ -4914,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=AAAD/d=0/rs=AN8SPfpxZ_PDqjwQqfIDlbJ_9iabaVfvFA/m=el_main_css</v>
+        <v>https://www.gstatic.com/_/translate_http/_/ss/k=translate_http.tr.2f3WBw8L4SI.L.W.O/am=KAAD/d=0/rs=AN8SPfrhC_4sx0aCDCE726xGqFV0GIzW_Q/m=el_main_css</v>
       </c>
       <c r="C168" t="str">
         <v>Stylesheet</v>
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5b71v897045112za200zd897045112&amp;_p=1762814324447&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=547226382.1762814325&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~105322304~115583767~115938465~115938468~116217636~116217638&amp;sid=1762814324&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=696</v>
+        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1h1v897045112za200zd897045112&amp;_p=1763141024117&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=700839855.1763141024&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638~116474636&amp;sid=1763141024&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=658</v>
       </c>
       <c r="C172" t="str">
         <v>Fetch</v>
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=547226382.1762814325&amp;gtm=45je5b71v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~105322304~115583767~115938465~115938468~116217636~116217638</v>
+        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=700839855.1763141024&amp;gtm=45je5bc1h1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638~116474636</v>
       </c>
       <c r="C173" t="str">
         <v>Ping</v>
@@ -5064,7 +5064,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="str">
-        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=547226382.1762814325&amp;gtm=45je5b71v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~105322304~115583767~115938465~115938468~116217636~116217638&amp;z=2091897557</v>
+        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=700839855.1763141024&amp;gtm=45je5bc1h1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638~116474636&amp;z=1432973097</v>
       </c>
       <c r="C174" t="str">
         <v>Image</v>
@@ -5099,16 +5099,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E175">
-        <v>34217</v>
+        <v>34216</v>
       </c>
       <c r="F175">
         <v>96381</v>
       </c>
       <c r="G175">
-        <v>0.009950748421</v>
+        <v>0.009950457607999999</v>
       </c>
       <c r="H175">
-        <v>0.0131078962638</v>
+        <v>0.013107513182400003</v>
       </c>
     </row>
     <row r="176">
@@ -5125,16 +5125,16 @@
         <v>text/css</v>
       </c>
       <c r="E176">
-        <v>52882</v>
+        <v>40246</v>
       </c>
       <c r="F176">
         <v>238784</v>
       </c>
       <c r="G176">
-        <v>0.015378773065999999</v>
+        <v>0.011704059997999998</v>
       </c>
       <c r="H176">
-        <v>0.0202581105948</v>
+        <v>0.015417494024400003</v>
       </c>
     </row>
     <row r="177">
@@ -5151,16 +5151,16 @@
         <v>text/css</v>
       </c>
       <c r="E177">
-        <v>3721</v>
+        <v>3065</v>
       </c>
       <c r="F177">
         <v>9512</v>
       </c>
       <c r="G177">
-        <v>0.0010821151729999998</v>
+        <v>0.0008913418449999999</v>
       </c>
       <c r="H177">
-        <v>0.0014254458894</v>
+        <v>0.001174144491</v>
       </c>
     </row>
     <row r="178">
@@ -5229,16 +5229,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E180">
-        <v>100661</v>
+        <v>100651</v>
       </c>
       <c r="F180">
-        <v>300703</v>
+        <v>300702</v>
       </c>
       <c r="G180">
-        <v>0.029273527392999994</v>
+        <v>0.029270619262999998</v>
       </c>
       <c r="H180">
-        <v>0.03856135680540001</v>
+        <v>0.038557525991400006</v>
       </c>
     </row>
     <row r="181">
@@ -5255,16 +5255,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E181">
-        <v>4686</v>
+        <v>3831</v>
       </c>
       <c r="F181">
         <v>10666</v>
       </c>
       <c r="G181">
-        <v>0.0013627497179999996</v>
+        <v>0.0011141046029999999</v>
       </c>
       <c r="H181">
-        <v>0.0017951194404000003</v>
+        <v>0.0014675848434</v>
       </c>
     </row>
     <row r="182">
@@ -5281,16 +5281,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E182">
-        <v>13671</v>
+        <v>13705</v>
       </c>
       <c r="F182">
         <v>41783</v>
       </c>
       <c r="G182">
-        <v>0.003975704522999999</v>
+        <v>0.003985592164999999</v>
       </c>
       <c r="H182">
-        <v>0.0052371058194</v>
+        <v>0.005250130587</v>
       </c>
     </row>
     <row r="183">
@@ -5307,16 +5307,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E183">
-        <v>27879</v>
+        <v>27845</v>
       </c>
       <c r="F183">
         <v>107468</v>
       </c>
       <c r="G183">
-        <v>0.008107575626999998</v>
+        <v>0.008097687985</v>
       </c>
       <c r="H183">
-        <v>0.010679926350600001</v>
+        <v>0.010666901583</v>
       </c>
     </row>
     <row r="184">
@@ -5333,16 +5333,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E184">
-        <v>119655</v>
+        <v>92795</v>
       </c>
       <c r="F184">
         <v>352868</v>
       </c>
       <c r="G184">
-        <v>0.034797229515</v>
+        <v>0.026985992334999997</v>
       </c>
       <c r="H184">
-        <v>0.045837604917000015</v>
+        <v>0.035548038513</v>
       </c>
     </row>
     <row r="185">
@@ -5402,25 +5402,25 @@
         <v>3</v>
       </c>
       <c r="B187" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
+        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
       </c>
       <c r="C187" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D187" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E187">
-        <v>19979</v>
+        <v>383</v>
       </c>
       <c r="F187">
-        <v>60972</v>
+        <v>3</v>
       </c>
       <c r="G187">
-        <v>0.005810152926999999</v>
+        <v>0.00011138137899999999</v>
       </c>
       <c r="H187">
-        <v>0.0076535832906</v>
+        <v>0.0001467201762</v>
       </c>
     </row>
     <row r="188">
@@ -5428,25 +5428,25 @@
         <v>3</v>
       </c>
       <c r="B188" t="str">
-        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
       </c>
       <c r="C188" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D188" t="str">
-        <v>application/json</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E188">
-        <v>383</v>
+        <v>19979</v>
       </c>
       <c r="F188">
-        <v>3</v>
+        <v>60972</v>
       </c>
       <c r="G188">
-        <v>0.00011138137899999999</v>
+        <v>0.005810152926999999</v>
       </c>
       <c r="H188">
-        <v>0.0001467201762</v>
+        <v>0.0076535832906</v>
       </c>
     </row>
     <row r="189">
@@ -5454,22 +5454,25 @@
         <v>3</v>
       </c>
       <c r="B189" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/k/nordrefollo.html</v>
       </c>
       <c r="C189" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D189" t="str">
-        <v/>
+        <v>text/html</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>2009</v>
+      </c>
+      <c r="F189">
+        <v>5665</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>0.000584243317</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>0.0007696105326000001</v>
       </c>
     </row>
     <row r="190">
@@ -5477,25 +5480,25 @@
         <v>3</v>
       </c>
       <c r="B190" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/site.webmanifest</v>
       </c>
       <c r="C190" t="str">
-        <v>XHR</v>
+        <v>Manifest</v>
       </c>
       <c r="D190" t="str">
-        <v>text/json</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E190">
-        <v>7417</v>
+        <v>653</v>
       </c>
       <c r="F190">
-        <v>28951</v>
+        <v>263</v>
       </c>
       <c r="G190">
-        <v>0.0021569600209999998</v>
+        <v>0.00018990088899999998</v>
       </c>
       <c r="H190">
-        <v>0.0028413147438</v>
+        <v>0.0002501521542</v>
       </c>
     </row>
     <row r="191">
@@ -5503,25 +5506,22 @@
         <v>3</v>
       </c>
       <c r="B191" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C191" t="str">
-        <v>Image</v>
+        <v>Preflight</v>
       </c>
       <c r="D191" t="str">
-        <v>image/svg+xml</v>
+        <v/>
       </c>
       <c r="E191">
-        <v>10371</v>
-      </c>
-      <c r="F191">
-        <v>25102</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>0.0030160216229999995</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>0.0039729371994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5529,25 +5529,25 @@
         <v>3</v>
       </c>
       <c r="B192" t="str">
-        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/k/nordrefollo.html</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C192" t="str">
         <v>XHR</v>
       </c>
       <c r="D192" t="str">
-        <v>text/html</v>
+        <v>text/json</v>
       </c>
       <c r="E192">
-        <v>2358</v>
+        <v>7417</v>
       </c>
       <c r="F192">
-        <v>5665</v>
+        <v>28951</v>
       </c>
       <c r="G192">
-        <v>0.000685737054</v>
+        <v>0.0021569600209999998</v>
       </c>
       <c r="H192">
-        <v>0.0009033059412000001</v>
+        <v>0.0028413147438</v>
       </c>
     </row>
     <row r="193">
@@ -5555,25 +5555,25 @@
         <v>3</v>
       </c>
       <c r="B193" t="str">
-        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/site.webmanifest</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
       </c>
       <c r="C193" t="str">
-        <v>Manifest</v>
+        <v>Image</v>
       </c>
       <c r="D193" t="str">
-        <v>application/octet-stream</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E193">
-        <v>651</v>
+        <v>25480</v>
       </c>
       <c r="F193">
-        <v>263</v>
+        <v>25102</v>
       </c>
       <c r="G193">
-        <v>0.00018931926299999997</v>
+        <v>0.0074099152399999995</v>
       </c>
       <c r="H193">
-        <v>0.00024938599140000004</v>
+        <v>0.009760914072</v>
       </c>
     </row>
     <row r="194">
@@ -5581,25 +5581,25 @@
         <v>3</v>
       </c>
       <c r="B194" t="str">
-        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/favicon-32x32.png</v>
+        <v>https://fonts.googleapis.com/css?family=Encode+Sans:400,700,900&amp;display=swap</v>
       </c>
       <c r="C194" t="str">
-        <v>Other</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D194" t="str">
-        <v>image/png</v>
+        <v>text/css</v>
       </c>
       <c r="E194">
-        <v>1801</v>
+        <v>1021</v>
       </c>
       <c r="F194">
-        <v>1577</v>
+        <v>4206</v>
       </c>
       <c r="G194">
-        <v>0.0005237542129999999</v>
+        <v>0.0002969200729999999</v>
       </c>
       <c r="H194">
-        <v>0.0006899296014</v>
+        <v>0.0003911261094</v>
       </c>
     </row>
     <row r="195">
@@ -5607,25 +5607,25 @@
         <v>3</v>
       </c>
       <c r="B195" t="str">
-        <v>https://fonts.googleapis.com/css?family=Encode+Sans:400,700,900&amp;display=swap</v>
+        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/kalender_templ.html</v>
       </c>
       <c r="C195" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D195" t="str">
-        <v>text/css</v>
+        <v>text/html</v>
       </c>
       <c r="E195">
-        <v>1021</v>
+        <v>6634</v>
       </c>
       <c r="F195">
-        <v>4206</v>
+        <v>31243</v>
       </c>
       <c r="G195">
-        <v>0.0002969200729999999</v>
+        <v>0.0019292534419999997</v>
       </c>
       <c r="H195">
-        <v>0.0003911261094</v>
+        <v>0.0025413620076</v>
       </c>
     </row>
     <row r="196">
@@ -5633,25 +5633,25 @@
         <v>3</v>
       </c>
       <c r="B196" t="str">
-        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/kalender_templ.html</v>
+        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/favicon-32x32.png</v>
       </c>
       <c r="C196" t="str">
-        <v>XHR</v>
+        <v>Other</v>
       </c>
       <c r="D196" t="str">
-        <v>text/html</v>
+        <v>image/png</v>
       </c>
       <c r="E196">
-        <v>8742</v>
+        <v>1755</v>
       </c>
       <c r="F196">
-        <v>31243</v>
+        <v>1577</v>
       </c>
       <c r="G196">
-        <v>0.0025422872459999997</v>
+        <v>0.0005103768149999999</v>
       </c>
       <c r="H196">
-        <v>0.0033488975988</v>
+        <v>0.0006723078570000001</v>
       </c>
     </row>
     <row r="197">
@@ -5668,16 +5668,16 @@
         <v>application/json</v>
       </c>
       <c r="E197">
-        <v>1804</v>
+        <v>1836</v>
       </c>
       <c r="F197">
-        <v>8211</v>
+        <v>8512</v>
       </c>
       <c r="G197">
-        <v>0.0005246266519999999</v>
+        <v>0.0005339326679999999</v>
       </c>
       <c r="H197">
-        <v>0.0006910788456000001</v>
+        <v>0.0007033374504</v>
       </c>
     </row>
     <row r="198">
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="B198" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=39&amp;SearchText=&amp;DateFrom=10.11.2025&amp;DateTo=10.11.2026&amp;Municipalities=0&amp;Kunde=nordrefollo&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=3&amp;Distributor=</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=39&amp;SearchText=&amp;DateFrom=14.11.2025&amp;DateTo=14.11.2026&amp;Municipalities=0&amp;Kunde=nordrefollo&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=compact&amp;Count=3&amp;Distributor=</v>
       </c>
       <c r="C198" t="str">
         <v>XHR</v>
@@ -5694,16 +5694,16 @@
         <v>application/json</v>
       </c>
       <c r="E198">
-        <v>4637</v>
+        <v>4603</v>
       </c>
       <c r="F198">
-        <v>28574</v>
+        <v>24700</v>
       </c>
       <c r="G198">
-        <v>0.001348499881</v>
+        <v>0.0013386122389999998</v>
       </c>
       <c r="H198">
-        <v>0.0017763484518000003</v>
+        <v>0.0017633236842000003</v>
       </c>
     </row>
     <row r="199">
@@ -5815,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="B203" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLanghus_pen_barnehage_3_2__1448983375.jpg%26dh%3D262%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dknytte_sko_3__764026988.jpg%26dh%3D467%26dw%3D350</v>
       </c>
       <c r="C203" t="str">
         <v>Image</v>
@@ -5824,16 +5824,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E203">
-        <v>64935</v>
+        <v>51299</v>
       </c>
       <c r="F203">
-        <v>64398</v>
+        <v>50692</v>
       </c>
       <c r="G203">
-        <v>0.018883942154999996</v>
+        <v>0.014918416086999998</v>
       </c>
       <c r="H203">
-        <v>0.024875390709000002</v>
+        <v>0.019651692738600002</v>
       </c>
     </row>
     <row r="204">
@@ -5841,7 +5841,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DSkjermbilde_2025-09-02_kl._13.48.27_243316918.png%26dh%3D254%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DD964FCF56836C18CDDE84C04163E4BB3F73827CD_709592256.png%26dh%3D350%26dw%3D350</v>
       </c>
       <c r="C204" t="str">
         <v>Image</v>
@@ -5850,16 +5850,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E204">
-        <v>53420</v>
+        <v>68648</v>
       </c>
       <c r="F204">
-        <v>52828</v>
+        <v>68256</v>
       </c>
       <c r="G204">
-        <v>0.015535230459999997</v>
+        <v>0.019963730824</v>
       </c>
       <c r="H204">
-        <v>0.020464208388000005</v>
+        <v>0.026297771947199997</v>
       </c>
     </row>
     <row r="205">
@@ -5867,7 +5867,7 @@
         <v>3</v>
       </c>
       <c r="B205" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLysdesign_Workshop_-_1920x1080_1__1900912943.png%26dh%3D197%26dw%3D350</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_740,h_400,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D340B67AA560CBDC2C89A9B41CB96ED96A9ED5D78_46434513.jpg%26dh%3D197%26dw%3D350</v>
       </c>
       <c r="C205" t="str">
         <v>Image</v>
@@ -5876,16 +5876,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E205">
-        <v>56252</v>
+        <v>92269</v>
       </c>
       <c r="F205">
-        <v>55659</v>
+        <v>91849</v>
       </c>
       <c r="G205">
-        <v>0.016358812875999995</v>
+        <v>0.026833024696999996</v>
       </c>
       <c r="H205">
-        <v>0.021549094912800004</v>
+        <v>0.0353465376966</v>
       </c>
     </row>
   </sheetData>
@@ -5924,10 +5924,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>42264</v>
+        <v>42101</v>
       </c>
       <c r="D2">
-        <v>151923</v>
+        <v>151818</v>
       </c>
     </row>
     <row r="3">
@@ -5938,7 +5938,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>433489</v>
+        <v>393626</v>
       </c>
       <c r="D3">
         <v>1961283</v>
@@ -5952,10 +5952,10 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>4958452</v>
+        <v>4875469</v>
       </c>
       <c r="D4">
-        <v>16858739</v>
+        <v>16857867</v>
       </c>
     </row>
     <row r="5">
@@ -5966,10 +5966,10 @@
         <v>63</v>
       </c>
       <c r="C5">
-        <v>2080064</v>
+        <v>2208482</v>
       </c>
       <c r="D5">
-        <v>2084670</v>
+        <v>2198406</v>
       </c>
     </row>
     <row r="6">
@@ -5994,10 +5994,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>70672</v>
+        <v>71105</v>
       </c>
       <c r="D7">
-        <v>769740</v>
+        <v>773607</v>
       </c>
     </row>
     <row r="8">
@@ -6008,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>1695</v>
+        <v>1677</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -6022,10 +6022,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>76022</v>
+        <v>68645</v>
       </c>
       <c r="D9">
-        <v>307941</v>
+        <v>297222</v>
       </c>
     </row>
     <row r="10">
@@ -6036,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D10">
         <v>789</v>
@@ -6064,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>5380</v>
+        <v>5307</v>
       </c>
       <c r="D12">
         <v>4731</v>
@@ -6103,13 +6103,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3202592</v>
+        <v>3197829</v>
       </c>
       <c r="C2">
-        <v>0.9313553872959999</v>
+        <v>0.9299702449769999</v>
       </c>
       <c r="D2">
-        <v>1.2268534269888</v>
+        <v>1.2250288102806002</v>
       </c>
     </row>
     <row r="3">
@@ -6117,13 +6117,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3202970</v>
+        <v>3197581</v>
       </c>
       <c r="C3">
-        <v>0.9314653146099999</v>
+        <v>0.9298981233529998</v>
       </c>
       <c r="D3">
-        <v>1.226998231758</v>
+        <v>1.2249338060934</v>
       </c>
     </row>
     <row r="4">
@@ -6131,13 +6131,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3187968</v>
+        <v>3196498</v>
       </c>
       <c r="C4">
-        <v>0.9271025379839999</v>
+        <v>0.9295831728739999</v>
       </c>
       <c r="D4">
-        <v>1.2212512445952002</v>
+        <v>1.2245189289372</v>
       </c>
     </row>
     <row r="5">
@@ -6145,13 +6145,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>3202592</v>
+        <v>3197581</v>
       </c>
       <c r="C5">
-        <v>0.9313553872959999</v>
+        <v>0.9298981233529998</v>
       </c>
       <c r="D5">
-        <v>1.2268534269888</v>
+        <v>1.2249338060934</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nordrefollo.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nordrefollo.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18807.637499999997</v>
+        <v>19142.660000000003</v>
       </c>
       <c r="C2">
-        <v>14503.471499999996</v>
+        <v>14696.940499999997</v>
       </c>
       <c r="D2">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="E2">
-        <v>19256.70935</v>
+        <v>19663.72055</v>
       </c>
       <c r="F2">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>14503.471499999996</v>
+        <v>14696.940499999997</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2">
-        <v>3197829</v>
+        <v>3196807</v>
       </c>
       <c r="K2">
         <v>68</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19097.013000000003</v>
+        <v>19399.667500000003</v>
       </c>
       <c r="C3">
-        <v>14593.8585</v>
+        <v>14859.539499999999</v>
       </c>
       <c r="D3">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="E3">
-        <v>19362.745300000006</v>
+        <v>19580.741950000003</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14593.8585</v>
+        <v>14859.539499999999</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>3197581</v>
+        <v>3197962</v>
       </c>
       <c r="K3">
         <v>68</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19032.624499999998</v>
+        <v>18766.045</v>
       </c>
       <c r="C4">
-        <v>14538.732999999997</v>
+        <v>14338.247500000001</v>
       </c>
       <c r="D4">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="E4">
-        <v>19397.69485</v>
+        <v>19214.632500000007</v>
       </c>
       <c r="F4">
-        <v>244.5</v>
+        <v>154</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14538.732999999997</v>
+        <v>14338.247500000001</v>
       </c>
       <c r="I4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>3196498</v>
+        <v>3197718</v>
       </c>
       <c r="K4">
         <v>68</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>19032.624499999998</v>
+        <v>19142.660000000003</v>
       </c>
       <c r="C5">
-        <v>14538.732999999997</v>
+        <v>14696.940499999997</v>
       </c>
       <c r="D5">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="E5">
-        <v>19362.745300000006</v>
+        <v>19580.741950000003</v>
       </c>
       <c r="F5">
-        <v>244.5</v>
+        <v>223</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14538.732999999997</v>
+        <v>14696.940499999997</v>
       </c>
       <c r="I5">
         <v>51</v>
       </c>
       <c r="J5">
-        <v>3197581</v>
+        <v>3197718</v>
       </c>
       <c r="K5">
         <v>68</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>12813</v>
+        <v>12814</v>
       </c>
       <c r="F2">
         <v>49101</v>
       </c>
       <c r="G2">
-        <v>0.0037261869689999994</v>
+        <v>0.0037264777819999997</v>
       </c>
       <c r="H2">
-        <v>0.004908421978200001</v>
+        <v>0.0049088050596</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>text/css</v>
       </c>
       <c r="E3">
-        <v>81201</v>
+        <v>81203</v>
       </c>
       <c r="F3">
         <v>350879</v>
       </c>
       <c r="G3">
-        <v>0.023614306412999997</v>
+        <v>0.023614888038999995</v>
       </c>
       <c r="H3">
-        <v>0.031106592761399997</v>
+        <v>0.0311073589242</v>
       </c>
     </row>
     <row r="4">
@@ -712,16 +712,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E5">
-        <v>189930</v>
+        <v>189932</v>
       </c>
       <c r="F5">
         <v>489119</v>
       </c>
       <c r="G5">
-        <v>0.055234113089999995</v>
+        <v>0.05523469471599999</v>
       </c>
       <c r="H5">
-        <v>0.072758650302</v>
+        <v>0.0727594164648</v>
       </c>
     </row>
     <row r="6">
@@ -738,16 +738,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E6">
-        <v>422356</v>
+        <v>422358</v>
       </c>
       <c r="F6">
         <v>1639501</v>
       </c>
       <c r="G6">
-        <v>0.122826615428</v>
+        <v>0.12282719705399998</v>
       </c>
       <c r="H6">
-        <v>0.1617967277784</v>
+        <v>0.16179749394120002</v>
       </c>
     </row>
     <row r="7">
@@ -842,16 +842,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E10">
-        <v>28517</v>
+        <v>28405</v>
       </c>
       <c r="F10">
-        <v>79136</v>
+        <v>79135</v>
       </c>
       <c r="G10">
-        <v>0.008293114321</v>
+        <v>0.008260543264999998</v>
       </c>
       <c r="H10">
-        <v>0.010924332283800001</v>
+        <v>0.010881427167</v>
       </c>
     </row>
     <row r="11">
@@ -894,16 +894,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E12">
-        <v>932</v>
+        <v>659</v>
       </c>
       <c r="F12">
         <v>703</v>
       </c>
       <c r="G12">
-        <v>0.00027103771599999997</v>
+        <v>0.00019164576699999997</v>
       </c>
       <c r="H12">
-        <v>0.00035703186480000006</v>
+        <v>0.0002524506426</v>
       </c>
     </row>
     <row r="13">
@@ -920,16 +920,16 @@
         <v>image/png</v>
       </c>
       <c r="E13">
-        <v>1115</v>
+        <v>936</v>
       </c>
       <c r="F13">
         <v>554</v>
       </c>
       <c r="G13">
-        <v>0.00032425649499999995</v>
+        <v>0.00027220096799999993</v>
       </c>
       <c r="H13">
-        <v>0.00042713576100000003</v>
+        <v>0.00035856419040000004</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +946,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E14">
-        <v>1480</v>
+        <v>1174</v>
       </c>
       <c r="F14">
         <v>2158</v>
       </c>
       <c r="G14">
-        <v>0.00043040323999999995</v>
+        <v>0.00034141446199999995</v>
       </c>
       <c r="H14">
-        <v>0.0005669604720000001</v>
+        <v>0.0004497375636</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E15">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="F15">
         <v>700</v>
       </c>
       <c r="G15">
-        <v>0.00025998682199999994</v>
+        <v>0.00025591543999999993</v>
       </c>
       <c r="H15">
-        <v>0.0003424747716000001</v>
+        <v>0.00033711163200000004</v>
       </c>
     </row>
     <row r="16">
@@ -1024,16 +1024,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>105091</v>
+        <v>104951</v>
       </c>
       <c r="F17">
         <v>365679</v>
       </c>
       <c r="G17">
-        <v>0.030561828982999997</v>
+        <v>0.030521115162999997</v>
       </c>
       <c r="H17">
-        <v>0.040258407407400006</v>
+        <v>0.040204776011400004</v>
       </c>
     </row>
     <row r="18">
@@ -1151,16 +1151,16 @@
         <v>application/json</v>
       </c>
       <c r="E22">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F22">
         <v>669</v>
       </c>
       <c r="G22">
-        <v>0.0002826702359999999</v>
+        <v>0.00028208861</v>
       </c>
       <c r="H22">
-        <v>0.0003723551208</v>
+        <v>0.0003715889580000001</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>43419</v>
+        <v>43418</v>
       </c>
       <c r="F23">
         <v>42989</v>
       </c>
       <c r="G23">
-        <v>0.012626809646999998</v>
+        <v>0.012626518833999999</v>
       </c>
       <c r="H23">
-        <v>0.016633011306600002</v>
+        <v>0.0166326282252</v>
       </c>
     </row>
     <row r="24">
@@ -1203,16 +1203,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>62204</v>
+        <v>62201</v>
       </c>
       <c r="F24">
         <v>61746</v>
       </c>
       <c r="G24">
-        <v>0.018089731851999996</v>
+        <v>0.018088859412999998</v>
       </c>
       <c r="H24">
-        <v>0.023829195405600002</v>
+        <v>0.0238280461614</v>
       </c>
     </row>
     <row r="25">
@@ -1229,16 +1229,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E25">
-        <v>48864</v>
+        <v>48866</v>
       </c>
       <c r="F25">
         <v>48425</v>
       </c>
       <c r="G25">
-        <v>0.014210286431999997</v>
+        <v>0.014210868057999997</v>
       </c>
       <c r="H25">
-        <v>0.018718889529599998</v>
+        <v>0.018719655692400004</v>
       </c>
     </row>
     <row r="26">
@@ -1281,16 +1281,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E27">
-        <v>19725</v>
+        <v>19726</v>
       </c>
       <c r="F27">
         <v>19315</v>
       </c>
       <c r="G27">
-        <v>0.005736286424999999</v>
+        <v>0.005736577237999999</v>
       </c>
       <c r="H27">
-        <v>0.007556280615000001</v>
+        <v>0.007556663696400002</v>
       </c>
     </row>
     <row r="28">
@@ -1333,16 +1333,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E29">
-        <v>49159</v>
+        <v>49161</v>
       </c>
       <c r="F29">
         <v>48719</v>
       </c>
       <c r="G29">
-        <v>0.014296076266999998</v>
+        <v>0.014296657892999998</v>
       </c>
       <c r="H29">
-        <v>0.018831898542600003</v>
+        <v>0.0188326647054</v>
       </c>
     </row>
     <row r="30">
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1v897045112za200zd897045112&amp;_p=1763140994548&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1235870788.1763140995&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116217636~116217638~116474637&amp;sid=1763140994&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=747</v>
+        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1v897045112za200zd897045112&amp;_p=1763143403043&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=7177589.1763143403&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105322303~105391253~115583767~115938465~115938469~116217636~116217638&amp;sid=1763143403&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=780</v>
       </c>
       <c r="C36" t="str">
         <v>Fetch</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=1235870788.1763140995&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116217636~116217638~116474637</v>
+        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=7177589.1763143403&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105322303~105391253~115583767~115938465~115938469~116217636~116217638</v>
       </c>
       <c r="C37" t="str">
         <v>Ping</v>
@@ -1538,13 +1538,13 @@
         <v>text/plain</v>
       </c>
       <c r="E37">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="G37">
-        <v>0.00016169202799999998</v>
+        <v>0.000164309345</v>
       </c>
       <c r="H37">
-        <v>0.0002129932584</v>
+        <v>0.00021644099100000003</v>
       </c>
     </row>
     <row r="38">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=1235870788.1763140995&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115616986~115938465~115938468~116217636~116217638~116474637&amp;z=170520953</v>
+        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=7177589.1763143403&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105322303~105391253~115583767~115938465~115938469~116217636~116217638&amp;z=832209089</v>
       </c>
       <c r="C38" t="str">
         <v>Image</v>
@@ -1769,16 +1769,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E46">
-        <v>13694</v>
+        <v>13695</v>
       </c>
       <c r="F46">
         <v>41783</v>
       </c>
       <c r="G46">
-        <v>0.003982393221999999</v>
+        <v>0.003982684035</v>
       </c>
       <c r="H46">
-        <v>0.005245916691600001</v>
+        <v>0.005246299773</v>
       </c>
     </row>
     <row r="47">
@@ -1795,16 +1795,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E47">
-        <v>27850</v>
+        <v>27851</v>
       </c>
       <c r="F47">
         <v>107468</v>
       </c>
       <c r="G47">
-        <v>0.008099142049999999</v>
+        <v>0.008099432863</v>
       </c>
       <c r="H47">
-        <v>0.01066881699</v>
+        <v>0.010669200071400002</v>
       </c>
     </row>
     <row r="48">
@@ -1890,25 +1890,25 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
       </c>
       <c r="C51" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D51" t="str">
-        <v>application/json</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E51">
-        <v>383</v>
+        <v>19979</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>60972</v>
       </c>
       <c r="G51">
-        <v>0.00011138137899999999</v>
+        <v>0.005810152926999999</v>
       </c>
       <c r="H51">
-        <v>0.0001467201762</v>
+        <v>0.0076535832906</v>
       </c>
     </row>
     <row r="52">
@@ -1916,25 +1916,25 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
+        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
       </c>
       <c r="C52" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D52" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E52">
-        <v>19979</v>
+        <v>383</v>
       </c>
       <c r="F52">
-        <v>60972</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>0.005810152926999999</v>
+        <v>0.00011138137899999999</v>
       </c>
       <c r="H52">
-        <v>0.0076535832906</v>
+        <v>0.0001467201762</v>
       </c>
     </row>
     <row r="53">
@@ -1951,16 +1951,16 @@
         <v>text/html</v>
       </c>
       <c r="E53">
-        <v>2009</v>
+        <v>2358</v>
       </c>
       <c r="F53">
         <v>5665</v>
       </c>
       <c r="G53">
-        <v>0.000584243317</v>
+        <v>0.000685737054</v>
       </c>
       <c r="H53">
-        <v>0.0007696105326000001</v>
+        <v>0.0009033059412000001</v>
       </c>
     </row>
     <row r="54">
@@ -1997,19 +1997,22 @@
         <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C55" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D55" t="str">
-        <v/>
+        <v>text/json</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>7417</v>
+      </c>
+      <c r="F55">
+        <v>28951</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.0021569600209999998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>0.0028413147438</v>
       </c>
     </row>
     <row r="56">
@@ -2017,25 +2020,25 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
       </c>
       <c r="C56" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D56" t="str">
-        <v>text/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E56">
-        <v>7416</v>
+        <v>25480</v>
       </c>
       <c r="F56">
-        <v>28951</v>
+        <v>25102</v>
       </c>
       <c r="G56">
-        <v>0.0021566692079999995</v>
+        <v>0.0074099152399999995</v>
       </c>
       <c r="H56">
-        <v>0.0028409316624000004</v>
+        <v>0.009760914072</v>
       </c>
     </row>
     <row r="57">
@@ -2043,25 +2046,22 @@
         <v>1</v>
       </c>
       <c r="B57" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C57" t="str">
-        <v>Image</v>
+        <v>Preflight</v>
       </c>
       <c r="D57" t="str">
-        <v>image/svg+xml</v>
+        <v/>
       </c>
       <c r="E57">
-        <v>25480</v>
-      </c>
-      <c r="F57">
-        <v>25102</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.0074099152399999995</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0.009760914072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2182,16 +2182,16 @@
         <v>application/json</v>
       </c>
       <c r="E62">
-        <v>4603</v>
+        <v>4626</v>
       </c>
       <c r="F62">
         <v>24700</v>
       </c>
       <c r="G62">
-        <v>0.0013386122389999998</v>
+        <v>0.001345300938</v>
       </c>
       <c r="H62">
-        <v>0.0017633236842000003</v>
+        <v>0.0017721345564</v>
       </c>
     </row>
     <row r="63">
@@ -2312,16 +2312,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E67">
-        <v>51286</v>
+        <v>51299</v>
       </c>
       <c r="F67">
         <v>50692</v>
       </c>
       <c r="G67">
-        <v>0.014914635517999998</v>
+        <v>0.014918416086999998</v>
       </c>
       <c r="H67">
-        <v>0.019646712680400007</v>
+        <v>0.019651692738600002</v>
       </c>
     </row>
     <row r="68">
@@ -2338,16 +2338,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E68">
-        <v>68858</v>
+        <v>68648</v>
       </c>
       <c r="F68">
         <v>68256</v>
       </c>
       <c r="G68">
-        <v>0.020024801553999997</v>
+        <v>0.019963730824</v>
       </c>
       <c r="H68">
-        <v>0.0263782190412</v>
+        <v>0.026297771947199997</v>
       </c>
     </row>
     <row r="69">
@@ -2364,16 +2364,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E69">
-        <v>92460</v>
+        <v>92269</v>
       </c>
       <c r="F69">
         <v>91849</v>
       </c>
       <c r="G69">
-        <v>0.026888569979999995</v>
+        <v>0.026833024696999996</v>
       </c>
       <c r="H69">
-        <v>0.03541970624400001</v>
+        <v>0.0353465376966</v>
       </c>
     </row>
     <row r="70">
@@ -2416,16 +2416,16 @@
         <v>text/css</v>
       </c>
       <c r="E71">
-        <v>81201</v>
+        <v>81203</v>
       </c>
       <c r="F71">
         <v>350879</v>
       </c>
       <c r="G71">
-        <v>0.023614306412999997</v>
+        <v>0.023614888038999995</v>
       </c>
       <c r="H71">
-        <v>0.031106592761399997</v>
+        <v>0.0311073589242</v>
       </c>
     </row>
     <row r="72">
@@ -2468,16 +2468,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E73">
-        <v>189914</v>
+        <v>189932</v>
       </c>
       <c r="F73">
         <v>489119</v>
       </c>
       <c r="G73">
-        <v>0.055229460082</v>
+        <v>0.05523469471599999</v>
       </c>
       <c r="H73">
-        <v>0.0727525209996</v>
+        <v>0.0727594164648</v>
       </c>
     </row>
     <row r="74">
@@ -2494,16 +2494,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E74">
-        <v>422356</v>
+        <v>422358</v>
       </c>
       <c r="F74">
         <v>1639501</v>
       </c>
       <c r="G74">
-        <v>0.122826615428</v>
+        <v>0.12282719705399998</v>
       </c>
       <c r="H74">
-        <v>0.1617967277784</v>
+        <v>0.16179749394120002</v>
       </c>
     </row>
     <row r="75">
@@ -2546,16 +2546,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E76">
-        <v>148131</v>
+        <v>148130</v>
       </c>
       <c r="F76">
-        <v>438205</v>
+        <v>438225</v>
       </c>
       <c r="G76">
-        <v>0.043078420502999995</v>
+        <v>0.043078129689999994</v>
       </c>
       <c r="H76">
-        <v>0.0567462308634</v>
+        <v>0.056745847782000015</v>
       </c>
     </row>
     <row r="77">
@@ -2572,16 +2572,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E77">
-        <v>7472</v>
+        <v>7474</v>
       </c>
       <c r="F77">
         <v>7263</v>
       </c>
       <c r="G77">
-        <v>0.002172954736</v>
+        <v>0.002173536362</v>
       </c>
       <c r="H77">
-        <v>0.0028623842207999997</v>
+        <v>0.0028631503836000004</v>
       </c>
     </row>
     <row r="78">
@@ -2598,16 +2598,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E78">
-        <v>28407</v>
+        <v>28406</v>
       </c>
       <c r="F78">
-        <v>79136</v>
+        <v>79135</v>
       </c>
       <c r="G78">
-        <v>0.008261124891</v>
+        <v>0.008260834078</v>
       </c>
       <c r="H78">
-        <v>0.010882193329800002</v>
+        <v>0.010881810248399999</v>
       </c>
     </row>
     <row r="79">
@@ -2959,16 +2959,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E92">
-        <v>62202</v>
+        <v>62201</v>
       </c>
       <c r="F92">
         <v>61746</v>
       </c>
       <c r="G92">
-        <v>0.018089150225999998</v>
+        <v>0.018088859412999998</v>
       </c>
       <c r="H92">
-        <v>0.023828429242800004</v>
+        <v>0.0238280461614</v>
       </c>
     </row>
     <row r="93">
@@ -3011,16 +3011,16 @@
         <v>image/png</v>
       </c>
       <c r="E94">
-        <v>232193</v>
+        <v>232195</v>
       </c>
       <c r="F94">
         <v>231548</v>
       </c>
       <c r="G94">
-        <v>0.067524742909</v>
+        <v>0.067525324535</v>
       </c>
       <c r="H94">
-        <v>0.0889488195102</v>
+        <v>0.08894958567300001</v>
       </c>
     </row>
     <row r="95">
@@ -3037,16 +3037,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E95">
-        <v>19724</v>
+        <v>19723</v>
       </c>
       <c r="F95">
         <v>19315</v>
       </c>
       <c r="G95">
-        <v>0.005735995611999999</v>
+        <v>0.005735704798999999</v>
       </c>
       <c r="H95">
-        <v>0.007555897533600002</v>
+        <v>0.007555514452200001</v>
       </c>
     </row>
     <row r="96">
@@ -3089,16 +3089,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E97">
-        <v>49158</v>
+        <v>49159</v>
       </c>
       <c r="F97">
         <v>48719</v>
       </c>
       <c r="G97">
-        <v>0.014295785453999997</v>
+        <v>0.014296076266999998</v>
       </c>
       <c r="H97">
-        <v>0.018831515461200002</v>
+        <v>0.018831898542600003</v>
       </c>
     </row>
     <row r="98">
@@ -3262,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="str">
-        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1v897045112za200zd897045112&amp;_p=1763141009611&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=1541439540.1763141010&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115495938~115583767~115938465~115938468~116217636~116217638~116474637&amp;sid=1763141009&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=646</v>
+        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1v897045112za200zd897045112&amp;_p=1763143417888&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=59933003.1763143418&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105391253~115583767~115616986~115938465~115938469~116217636~116217638~116251935~116251937&amp;sid=1763143418&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=683</v>
       </c>
       <c r="C104" t="str">
         <v>Fetch</v>
@@ -3285,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="str">
-        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=1541439540.1763141010&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115495938~115583767~115938465~115938468~116217636~116217638~116474637</v>
+        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=59933003.1763143418&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105391253~115583767~115616986~115938465~115938469~116217636~116217638~116251935~116251937</v>
       </c>
       <c r="C105" t="str">
         <v>Ping</v>
@@ -3294,13 +3294,13 @@
         <v>text/plain</v>
       </c>
       <c r="E105">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="G105">
-        <v>0.00016169202799999998</v>
+        <v>0.000164309345</v>
       </c>
       <c r="H105">
-        <v>0.0002129932584</v>
+        <v>0.00021644099100000003</v>
       </c>
     </row>
     <row r="106">
@@ -3308,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=1541439540.1763141010&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115495938~115583767~115938465~115938468~116217636~116217638~116474637&amp;z=433545022</v>
+        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=59933003.1763143418&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105391253~115583767~115616986~115938465~115938469~116217636~116217638~116251935~116251937&amp;z=1921622634</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3473,16 +3473,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E112">
-        <v>100651</v>
+        <v>100650</v>
       </c>
       <c r="F112">
         <v>300702</v>
       </c>
       <c r="G112">
-        <v>0.029270619262999998</v>
+        <v>0.029270328449999997</v>
       </c>
       <c r="H112">
-        <v>0.038557525991400006</v>
+        <v>0.03855714291</v>
       </c>
     </row>
     <row r="113">
@@ -3525,16 +3525,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E114">
-        <v>13671</v>
+        <v>13668</v>
       </c>
       <c r="F114">
         <v>41783</v>
       </c>
       <c r="G114">
-        <v>0.003975704522999999</v>
+        <v>0.003974832083999999</v>
       </c>
       <c r="H114">
-        <v>0.0052371058194</v>
+        <v>0.005235956575200001</v>
       </c>
     </row>
     <row r="115">
@@ -3551,16 +3551,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E115">
-        <v>27877</v>
+        <v>27880</v>
       </c>
       <c r="F115">
         <v>107468</v>
       </c>
       <c r="G115">
-        <v>0.008106994000999998</v>
+        <v>0.008107866439999998</v>
       </c>
       <c r="H115">
-        <v>0.010679160187800001</v>
+        <v>0.010680309432000002</v>
       </c>
     </row>
     <row r="116">
@@ -3707,16 +3707,16 @@
         <v>text/html</v>
       </c>
       <c r="E121">
-        <v>2009</v>
+        <v>2358</v>
       </c>
       <c r="F121">
         <v>5665</v>
       </c>
       <c r="G121">
-        <v>0.000584243317</v>
+        <v>0.000685737054</v>
       </c>
       <c r="H121">
-        <v>0.0007696105326000001</v>
+        <v>0.0009033059412000001</v>
       </c>
     </row>
     <row r="122">
@@ -3782,16 +3782,16 @@
         <v>text/json</v>
       </c>
       <c r="E124">
-        <v>7417</v>
+        <v>7416</v>
       </c>
       <c r="F124">
         <v>28951</v>
       </c>
       <c r="G124">
-        <v>0.0021569600209999998</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H124">
-        <v>0.0028413147438</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="125">
@@ -3834,16 +3834,16 @@
         <v>text/css</v>
       </c>
       <c r="E126">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="F126">
         <v>4206</v>
       </c>
       <c r="G126">
-        <v>0.00025475218799999997</v>
+        <v>0.00024806348899999997</v>
       </c>
       <c r="H126">
-        <v>0.0003355793064</v>
+        <v>0.0003267684342000001</v>
       </c>
     </row>
     <row r="127">
@@ -3886,16 +3886,16 @@
         <v>image/png</v>
       </c>
       <c r="E128">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F128">
         <v>1577</v>
       </c>
       <c r="G128">
-        <v>0.000516483888</v>
+        <v>0.0005170655139999998</v>
       </c>
       <c r="H128">
-        <v>0.0006803525664000001</v>
+        <v>0.0006811187292000001</v>
       </c>
     </row>
     <row r="129">
@@ -3964,16 +3964,16 @@
         <v>application/json</v>
       </c>
       <c r="E131">
-        <v>4603</v>
+        <v>4626</v>
       </c>
       <c r="F131">
         <v>24700</v>
       </c>
       <c r="G131">
-        <v>0.0013386122389999998</v>
+        <v>0.001345300938</v>
       </c>
       <c r="H131">
-        <v>0.0017633236842000003</v>
+        <v>0.0017721345564</v>
       </c>
     </row>
     <row r="132">
@@ -4146,16 +4146,16 @@
         <v>text/html</v>
       </c>
       <c r="E138">
-        <v>12814</v>
+        <v>12815</v>
       </c>
       <c r="F138">
         <v>49101</v>
       </c>
       <c r="G138">
-        <v>0.0037264777819999997</v>
+        <v>0.0037267685949999995</v>
       </c>
       <c r="H138">
-        <v>0.0049088050596</v>
+        <v>0.004909188141000001</v>
       </c>
     </row>
     <row r="139">
@@ -4224,16 +4224,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E141">
-        <v>189914</v>
+        <v>189930</v>
       </c>
       <c r="F141">
         <v>489119</v>
       </c>
       <c r="G141">
-        <v>0.055229460082</v>
+        <v>0.055234113089999995</v>
       </c>
       <c r="H141">
-        <v>0.0727525209996</v>
+        <v>0.072758650302</v>
       </c>
     </row>
     <row r="142">
@@ -4302,16 +4302,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E144">
-        <v>148128</v>
+        <v>148131</v>
       </c>
       <c r="F144">
-        <v>438205</v>
+        <v>438222</v>
       </c>
       <c r="G144">
-        <v>0.043077548064</v>
+        <v>0.043078420502999995</v>
       </c>
       <c r="H144">
-        <v>0.05674508161920001</v>
+        <v>0.0567462308634</v>
       </c>
     </row>
     <row r="145">
@@ -4354,16 +4354,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E146">
-        <v>28407</v>
+        <v>28396</v>
       </c>
       <c r="F146">
-        <v>79136</v>
+        <v>79135</v>
       </c>
       <c r="G146">
-        <v>0.008261124891</v>
+        <v>0.008257925947999999</v>
       </c>
       <c r="H146">
-        <v>0.010882193329800002</v>
+        <v>0.010877979434400002</v>
       </c>
     </row>
     <row r="147">
@@ -4406,16 +4406,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E148">
-        <v>653</v>
+        <v>932</v>
       </c>
       <c r="F148">
         <v>703</v>
       </c>
       <c r="G148">
-        <v>0.00018990088899999998</v>
+        <v>0.00027103771599999997</v>
       </c>
       <c r="H148">
-        <v>0.0002501521542</v>
+        <v>0.00035703186480000006</v>
       </c>
     </row>
     <row r="149">
@@ -4432,16 +4432,16 @@
         <v>image/png</v>
       </c>
       <c r="E149">
-        <v>940</v>
+        <v>1115</v>
       </c>
       <c r="F149">
         <v>554</v>
       </c>
       <c r="G149">
-        <v>0.00027336421999999994</v>
+        <v>0.00032425649499999995</v>
       </c>
       <c r="H149">
-        <v>0.00036009651599999996</v>
+        <v>0.00042713576100000003</v>
       </c>
     </row>
     <row r="150">
@@ -4458,16 +4458,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E150">
-        <v>1415</v>
+        <v>1480</v>
       </c>
       <c r="F150">
         <v>2158</v>
       </c>
       <c r="G150">
-        <v>0.00041150039499999997</v>
+        <v>0.00043040323999999995</v>
       </c>
       <c r="H150">
-        <v>0.0005420601810000001</v>
+        <v>0.0005669604720000001</v>
       </c>
     </row>
     <row r="151">
@@ -4484,16 +4484,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E151">
-        <v>638</v>
+        <v>894</v>
       </c>
       <c r="F151">
         <v>700</v>
       </c>
       <c r="G151">
-        <v>0.00018553869399999998</v>
+        <v>0.00025998682199999994</v>
       </c>
       <c r="H151">
-        <v>0.0002444059332</v>
+        <v>0.0003424747716000001</v>
       </c>
     </row>
     <row r="152">
@@ -4689,16 +4689,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E159">
-        <v>43417</v>
+        <v>43424</v>
       </c>
       <c r="F159">
         <v>42989</v>
       </c>
       <c r="G159">
-        <v>0.012626228020999998</v>
+        <v>0.012628263712</v>
       </c>
       <c r="H159">
-        <v>0.016632245143800004</v>
+        <v>0.016634926713600003</v>
       </c>
     </row>
     <row r="160">
@@ -4715,16 +4715,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E160">
-        <v>62194</v>
+        <v>62201</v>
       </c>
       <c r="F160">
         <v>61746</v>
       </c>
       <c r="G160">
-        <v>0.018086823721999996</v>
+        <v>0.018088859412999998</v>
       </c>
       <c r="H160">
-        <v>0.0238253645916</v>
+        <v>0.0238280461614</v>
       </c>
     </row>
     <row r="161">
@@ -4741,16 +4741,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E161">
-        <v>48857</v>
+        <v>48864</v>
       </c>
       <c r="F161">
         <v>48425</v>
       </c>
       <c r="G161">
-        <v>0.014208250740999998</v>
+        <v>0.014210286431999997</v>
       </c>
       <c r="H161">
-        <v>0.018716207959800002</v>
+        <v>0.018718889529599998</v>
       </c>
     </row>
     <row r="162">
@@ -4767,16 +4767,16 @@
         <v>image/png</v>
       </c>
       <c r="E162">
-        <v>232186</v>
+        <v>232194</v>
       </c>
       <c r="F162">
         <v>231548</v>
       </c>
       <c r="G162">
-        <v>0.06752270721799998</v>
+        <v>0.067525033722</v>
       </c>
       <c r="H162">
-        <v>0.08894613794040002</v>
+        <v>0.08894920259160001</v>
       </c>
     </row>
     <row r="163">
@@ -4793,16 +4793,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E163">
-        <v>19715</v>
+        <v>19724</v>
       </c>
       <c r="F163">
         <v>19315</v>
       </c>
       <c r="G163">
-        <v>0.005733378294999999</v>
+        <v>0.005735995611999999</v>
       </c>
       <c r="H163">
-        <v>0.007552449801000002</v>
+        <v>0.007555897533600002</v>
       </c>
     </row>
     <row r="164">
@@ -4819,16 +4819,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E164">
-        <v>25042</v>
+        <v>25049</v>
       </c>
       <c r="F164">
         <v>24631</v>
       </c>
       <c r="G164">
-        <v>0.007282539145999999</v>
+        <v>0.007284574836999999</v>
       </c>
       <c r="H164">
-        <v>0.0095931244188</v>
+        <v>0.009595805988600003</v>
       </c>
     </row>
     <row r="165">
@@ -4845,16 +4845,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E165">
-        <v>49151</v>
+        <v>49159</v>
       </c>
       <c r="F165">
         <v>48719</v>
       </c>
       <c r="G165">
-        <v>0.014293749762999998</v>
+        <v>0.014296076266999998</v>
       </c>
       <c r="H165">
-        <v>0.0188288338914</v>
+        <v>0.018831898542600003</v>
       </c>
     </row>
     <row r="166">
@@ -5018,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1h1v897045112za200zd897045112&amp;_p=1763141024117&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=700839855.1763141024&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638~116474636&amp;sid=1763141024&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=658</v>
+        <v>https://region1.analytics.google.com/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;gtm=45je5bc1v897045112za200zd897045112&amp;_p=1763143432841&amp;_gaz=1&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;dma_cps=syphamo&amp;dma=1&amp;cid=631403174.1763143433&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104573694~104684208~104684211~115583767~115938465~115938469~116217636~116217638&amp;sid=1763143432&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.nordrefollo.kommune.no%2F&amp;dt=Nordre%20Follo%20kommune%20-%20Forside&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;_ee=1&amp;tfd=762</v>
       </c>
       <c r="C172" t="str">
         <v>Fetch</v>
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=700839855.1763141024&amp;gtm=45je5bc1h1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638~116474636</v>
+        <v>https://stats.g.doubleclick.net/g/collect?v=2&amp;tid=G-SZR3W9RX11&amp;cid=631403174.1763143433&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528501~104573694~104684208~104684211~115583767~115938465~115938469~116217636~116217638</v>
       </c>
       <c r="C173" t="str">
         <v>Ping</v>
@@ -5050,13 +5050,13 @@
         <v>text/plain</v>
       </c>
       <c r="E173">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G173">
-        <v>0.000164309345</v>
+        <v>0.00016169202799999998</v>
       </c>
       <c r="H173">
-        <v>0.00021644099100000003</v>
+        <v>0.0002129932584</v>
       </c>
     </row>
     <row r="174">
@@ -5064,7 +5064,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="str">
-        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=700839855.1763141024&amp;gtm=45je5bc1h1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638~116474636&amp;z=1432973097</v>
+        <v>https://www.google.no/ads/ga-audiences?v=1&amp;t=sr&amp;slf_rd=1&amp;_r=4&amp;tid=G-SZR3W9RX11&amp;cid=631403174.1763143433&amp;gtm=45je5bc1v897045112za200zd897045112&amp;aip=1&amp;dma=1&amp;dma_cps=syphamo&amp;gcd=13l3l3l2l1l1&amp;npa=1&amp;frm=0&amp;tag_exp=103116026~103200004~104527907~104528501~104573694~104684208~104684211~115583767~115938465~115938469~116217636~116217638&amp;z=1963003855</v>
       </c>
       <c r="C174" t="str">
         <v>Image</v>
@@ -5099,16 +5099,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E175">
-        <v>34216</v>
+        <v>34217</v>
       </c>
       <c r="F175">
         <v>96381</v>
       </c>
       <c r="G175">
-        <v>0.009950457607999999</v>
+        <v>0.009950748421</v>
       </c>
       <c r="H175">
-        <v>0.013107513182400003</v>
+        <v>0.0131078962638</v>
       </c>
     </row>
     <row r="176">
@@ -5281,16 +5281,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E182">
-        <v>13705</v>
+        <v>13697</v>
       </c>
       <c r="F182">
         <v>41783</v>
       </c>
       <c r="G182">
-        <v>0.003985592164999999</v>
+        <v>0.003983265660999999</v>
       </c>
       <c r="H182">
-        <v>0.005250130587</v>
+        <v>0.0052470659358</v>
       </c>
     </row>
     <row r="183">
@@ -5307,16 +5307,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E183">
-        <v>27845</v>
+        <v>27851</v>
       </c>
       <c r="F183">
         <v>107468</v>
       </c>
       <c r="G183">
-        <v>0.008097687985</v>
+        <v>0.008099432863</v>
       </c>
       <c r="H183">
-        <v>0.010666901583</v>
+        <v>0.010669200071400002</v>
       </c>
     </row>
     <row r="184">
@@ -5376,25 +5376,25 @@
         <v>3</v>
       </c>
       <c r="B186" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/nordre-follo.js?version2.1.8</v>
+        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
       </c>
       <c r="C186" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D186" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E186">
-        <v>1036</v>
+        <v>383</v>
       </c>
       <c r="F186">
-        <v>1197</v>
+        <v>3</v>
       </c>
       <c r="G186">
-        <v>0.00030128226799999995</v>
+        <v>0.00011138137899999999</v>
       </c>
       <c r="H186">
-        <v>0.00039687233040000005</v>
+        <v>0.0001467201762</v>
       </c>
     </row>
     <row r="187">
@@ -5402,25 +5402,25 @@
         <v>3</v>
       </c>
       <c r="B187" t="str">
-        <v>https://maps.googleapis.com/maps/api/mapsjs/gen_204?csp_test=true</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/nordre-follo.js?version2.1.8</v>
       </c>
       <c r="C187" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D187" t="str">
-        <v>application/json</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E187">
-        <v>383</v>
+        <v>1036</v>
       </c>
       <c r="F187">
-        <v>3</v>
+        <v>1197</v>
       </c>
       <c r="G187">
-        <v>0.00011138137899999999</v>
+        <v>0.00030128226799999995</v>
       </c>
       <c r="H187">
-        <v>0.0001467201762</v>
+        <v>0.00039687233040000005</v>
       </c>
     </row>
     <row r="188">
@@ -5428,25 +5428,25 @@
         <v>3</v>
       </c>
       <c r="B188" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
+        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/k/nordrefollo.html</v>
       </c>
       <c r="C188" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D188" t="str">
-        <v>application/x-javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E188">
-        <v>19979</v>
+        <v>2358</v>
       </c>
       <c r="F188">
-        <v>60972</v>
+        <v>5665</v>
       </c>
       <c r="G188">
-        <v>0.005810152926999999</v>
+        <v>0.000685737054</v>
       </c>
       <c r="H188">
-        <v>0.0076535832906</v>
+        <v>0.0009033059412000001</v>
       </c>
     </row>
     <row r="189">
@@ -5454,25 +5454,25 @@
         <v>3</v>
       </c>
       <c r="B189" t="str">
-        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/k/nordrefollo.html</v>
+        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/site.webmanifest</v>
       </c>
       <c r="C189" t="str">
-        <v>XHR</v>
+        <v>Manifest</v>
       </c>
       <c r="D189" t="str">
-        <v>text/html</v>
+        <v>application/octet-stream</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>651</v>
       </c>
       <c r="F189">
-        <v>5665</v>
+        <v>263</v>
       </c>
       <c r="G189">
-        <v>0.000584243317</v>
+        <v>0.00018931926299999997</v>
       </c>
       <c r="H189">
-        <v>0.0007696105326000001</v>
+        <v>0.00024938599140000004</v>
       </c>
     </row>
     <row r="190">
@@ -5480,25 +5480,25 @@
         <v>3</v>
       </c>
       <c r="B190" t="str">
-        <v>https://www.nordrefollo.kommune.no/globalassets/system/favicons/site.webmanifest</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/client_config/kari.install.js?version2.1.8</v>
       </c>
       <c r="C190" t="str">
-        <v>Manifest</v>
+        <v>Script</v>
       </c>
       <c r="D190" t="str">
-        <v>application/octet-stream</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E190">
-        <v>653</v>
+        <v>19979</v>
       </c>
       <c r="F190">
-        <v>263</v>
+        <v>60972</v>
       </c>
       <c r="G190">
-        <v>0.00018990088899999998</v>
+        <v>0.005810152926999999</v>
       </c>
       <c r="H190">
-        <v>0.0002501521542</v>
+        <v>0.0076535832906</v>
       </c>
     </row>
     <row r="191">
@@ -5506,22 +5506,25 @@
         <v>3</v>
       </c>
       <c r="B191" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://fonts.googleapis.com/css?family=Encode+Sans:400,700,900&amp;display=swap</v>
       </c>
       <c r="C191" t="str">
-        <v>Preflight</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D191" t="str">
-        <v/>
+        <v>text/css</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1021</v>
+      </c>
+      <c r="F191">
+        <v>4206</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>0.0002969200729999999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>0.0003911261094</v>
       </c>
     </row>
     <row r="192">
@@ -5529,25 +5532,25 @@
         <v>3</v>
       </c>
       <c r="B192" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/kalender_templ.html</v>
       </c>
       <c r="C192" t="str">
         <v>XHR</v>
       </c>
       <c r="D192" t="str">
-        <v>text/json</v>
+        <v>text/html</v>
       </c>
       <c r="E192">
-        <v>7417</v>
+        <v>6634</v>
       </c>
       <c r="F192">
-        <v>28951</v>
+        <v>31243</v>
       </c>
       <c r="G192">
-        <v>0.0021569600209999998</v>
+        <v>0.0019292534419999997</v>
       </c>
       <c r="H192">
-        <v>0.0028413147438</v>
+        <v>0.0025413620076</v>
       </c>
     </row>
     <row r="193">
@@ -5555,25 +5558,22 @@
         <v>3</v>
       </c>
       <c r="B193" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C193" t="str">
-        <v>Image</v>
+        <v>Preflight</v>
       </c>
       <c r="D193" t="str">
-        <v>image/svg+xml</v>
+        <v/>
       </c>
       <c r="E193">
-        <v>25480</v>
-      </c>
-      <c r="F193">
-        <v>25102</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>0.0074099152399999995</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>0.009760914072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5581,25 +5581,25 @@
         <v>3</v>
       </c>
       <c r="B194" t="str">
-        <v>https://fonts.googleapis.com/css?family=Encode+Sans:400,700,900&amp;display=swap</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C194" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D194" t="str">
-        <v>text/css</v>
+        <v>text/json</v>
       </c>
       <c r="E194">
-        <v>1021</v>
+        <v>7417</v>
       </c>
       <c r="F194">
-        <v>4206</v>
+        <v>28951</v>
       </c>
       <c r="G194">
-        <v>0.0002969200729999999</v>
+        <v>0.0021569600209999998</v>
       </c>
       <c r="H194">
-        <v>0.0003911261094</v>
+        <v>0.0028413147438</v>
       </c>
     </row>
     <row r="195">
@@ -5607,25 +5607,25 @@
         <v>3</v>
       </c>
       <c r="B195" t="str">
-        <v>https://prokomresources.prokomcdn.no/plugins/ssp-kalender-app-v2/iframe-app/html/kalender_templ.html</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-nordrefollo.svg?</v>
       </c>
       <c r="C195" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D195" t="str">
-        <v>text/html</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E195">
-        <v>6634</v>
+        <v>25480</v>
       </c>
       <c r="F195">
-        <v>31243</v>
+        <v>25102</v>
       </c>
       <c r="G195">
-        <v>0.0019292534419999997</v>
+        <v>0.0074099152399999995</v>
       </c>
       <c r="H195">
-        <v>0.0025413620076</v>
+        <v>0.009760914072</v>
       </c>
     </row>
     <row r="196">
@@ -5642,16 +5642,16 @@
         <v>image/png</v>
       </c>
       <c r="E196">
-        <v>1755</v>
+        <v>1801</v>
       </c>
       <c r="F196">
         <v>1577</v>
       </c>
       <c r="G196">
-        <v>0.0005103768149999999</v>
+        <v>0.0005237542129999999</v>
       </c>
       <c r="H196">
-        <v>0.0006723078570000001</v>
+        <v>0.0006899296014</v>
       </c>
     </row>
     <row r="197">
@@ -5824,16 +5824,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E203">
-        <v>51299</v>
+        <v>51067</v>
       </c>
       <c r="F203">
         <v>50692</v>
       </c>
       <c r="G203">
-        <v>0.014918416086999998</v>
+        <v>0.014850947470999997</v>
       </c>
       <c r="H203">
-        <v>0.019651692738600002</v>
+        <v>0.0195628178538</v>
       </c>
     </row>
     <row r="204">
@@ -5850,16 +5850,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E204">
-        <v>68648</v>
+        <v>68880</v>
       </c>
       <c r="F204">
         <v>68256</v>
       </c>
       <c r="G204">
-        <v>0.019963730824</v>
+        <v>0.020031199439999998</v>
       </c>
       <c r="H204">
-        <v>0.026297771947199997</v>
+        <v>0.026386646832</v>
       </c>
     </row>
     <row r="205">
@@ -5924,7 +5924,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>42101</v>
+        <v>42103</v>
       </c>
       <c r="D2">
         <v>151818</v>
@@ -5938,7 +5938,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>393626</v>
+        <v>393607</v>
       </c>
       <c r="D3">
         <v>1961283</v>
@@ -5952,10 +5952,10 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>4875469</v>
+        <v>4875247</v>
       </c>
       <c r="D4">
-        <v>16857867</v>
+        <v>16857901</v>
       </c>
     </row>
     <row r="5">
@@ -5966,7 +5966,7 @@
         <v>63</v>
       </c>
       <c r="C5">
-        <v>2208482</v>
+        <v>2208154</v>
       </c>
       <c r="D5">
         <v>2198406</v>
@@ -5994,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>71105</v>
+        <v>71103</v>
       </c>
       <c r="D7">
         <v>773607</v>
@@ -6008,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>1677</v>
+        <v>1686</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>68645</v>
+        <v>69738</v>
       </c>
       <c r="D9">
         <v>297222</v>
@@ -6036,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D10">
         <v>789</v>
@@ -6064,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>5307</v>
+        <v>5355</v>
       </c>
       <c r="D12">
         <v>4731</v>
@@ -6103,13 +6103,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3197829</v>
+        <v>3196807</v>
       </c>
       <c r="C2">
-        <v>0.9299702449769999</v>
+        <v>0.9296730340909999</v>
       </c>
       <c r="D2">
-        <v>1.2250288102806002</v>
+        <v>1.2246373010898</v>
       </c>
     </row>
     <row r="3">
@@ -6117,13 +6117,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3197581</v>
+        <v>3197962</v>
       </c>
       <c r="C3">
-        <v>0.9298981233529998</v>
+        <v>0.9300089231059998</v>
       </c>
       <c r="D3">
-        <v>1.2249338060934</v>
+        <v>1.2250797601068</v>
       </c>
     </row>
     <row r="4">
@@ -6131,13 +6131,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3196498</v>
+        <v>3197718</v>
       </c>
       <c r="C4">
-        <v>0.9295831728739999</v>
+        <v>0.9299379647339998</v>
       </c>
       <c r="D4">
-        <v>1.2245189289372</v>
+        <v>1.2249862882452</v>
       </c>
     </row>
     <row r="5">
@@ -6145,13 +6145,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>3197581</v>
+        <v>3197718</v>
       </c>
       <c r="C5">
-        <v>0.9298981233529998</v>
+        <v>0.9299379647339998</v>
       </c>
       <c r="D5">
-        <v>1.2249338060934</v>
+        <v>1.2249862882452</v>
       </c>
     </row>
   </sheetData>
